--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9872083618483301</v>
+        <v>0.9872083618483323</v>
       </c>
       <c r="D2">
-        <v>1.007263111950107</v>
+        <v>1.007263111950109</v>
       </c>
       <c r="E2">
-        <v>0.995476814370448</v>
+        <v>0.9954768143704505</v>
       </c>
       <c r="F2">
-        <v>0.9841674158239181</v>
+        <v>0.9841674158239201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038974039175912</v>
+        <v>1.038974039175913</v>
       </c>
       <c r="J2">
-        <v>1.009778518053862</v>
+        <v>1.009778518053865</v>
       </c>
       <c r="K2">
-        <v>1.018622179048524</v>
+        <v>1.018622179048526</v>
       </c>
       <c r="L2">
-        <v>1.006999526123235</v>
+        <v>1.006999526123237</v>
       </c>
       <c r="M2">
-        <v>0.9958518211912484</v>
+        <v>0.9958518211912503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.996092433913822</v>
+        <v>0.9960924339138225</v>
       </c>
       <c r="D3">
         <v>1.013893216793057</v>
@@ -468,7 +468,7 @@
         <v>1.004039758440116</v>
       </c>
       <c r="F3">
-        <v>0.9943994258976379</v>
+        <v>0.9943994258976387</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.016690192926065</v>
       </c>
       <c r="K3">
-        <v>1.024351364731479</v>
+        <v>1.02435136473148</v>
       </c>
       <c r="L3">
         <v>1.014621209444936</v>
       </c>
       <c r="M3">
-        <v>1.005104472257821</v>
+        <v>1.005104472257822</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001625378867923</v>
+        <v>1.001625378867921</v>
       </c>
       <c r="D4">
-        <v>1.018024285436987</v>
+        <v>1.018024285436985</v>
       </c>
       <c r="E4">
-        <v>1.009377906199052</v>
+        <v>1.00937790619905</v>
       </c>
       <c r="F4">
-        <v>1.000777592828622</v>
+        <v>1.000777592828619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044091013938958</v>
+        <v>1.044091013938957</v>
       </c>
       <c r="J4">
-        <v>1.020987598474572</v>
+        <v>1.02098759847457</v>
       </c>
       <c r="K4">
-        <v>1.027909933433545</v>
+        <v>1.027909933433544</v>
       </c>
       <c r="L4">
-        <v>1.0193644505878</v>
+        <v>1.019364450587798</v>
       </c>
       <c r="M4">
-        <v>1.010866642041308</v>
+        <v>1.010866642041306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>1.003903400268509</v>
       </c>
       <c r="D5">
-        <v>1.019725420461918</v>
+        <v>1.019725420461917</v>
       </c>
       <c r="E5">
-        <v>1.011576913588855</v>
+        <v>1.011576913588854</v>
       </c>
       <c r="F5">
-        <v>1.003405101775022</v>
+        <v>1.003405101775021</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.029372684402968</v>
       </c>
       <c r="L5">
-        <v>1.021316447300217</v>
+        <v>1.021316447300216</v>
       </c>
       <c r="M5">
-        <v>1.013239029915127</v>
+        <v>1.013239029915126</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -594,7 +594,7 @@
         <v>1.023049714294909</v>
       </c>
       <c r="K6">
-        <v>1.029616398004233</v>
+        <v>1.029616398004232</v>
       </c>
       <c r="L6">
         <v>1.021641812505837</v>
@@ -617,7 +617,7 @@
         <v>1.018047152719451</v>
       </c>
       <c r="E7">
-        <v>1.009407462677731</v>
+        <v>1.009407462677732</v>
       </c>
       <c r="F7">
         <v>1.000812908194318</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044101786189826</v>
+        <v>1.044101786189827</v>
       </c>
       <c r="J7">
-        <v>1.021011366667942</v>
+        <v>1.021011366667943</v>
       </c>
       <c r="K7">
         <v>1.027929606658669</v>
       </c>
       <c r="L7">
-        <v>1.019390694735948</v>
+        <v>1.019390694735949</v>
       </c>
       <c r="M7">
         <v>1.010898533851469</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9902577230267423</v>
+        <v>0.9902577230267402</v>
       </c>
       <c r="D8">
-        <v>1.00953832194563</v>
+        <v>1.009538321945628</v>
       </c>
       <c r="E8">
-        <v>0.9984148095297102</v>
+        <v>0.998414809529708</v>
       </c>
       <c r="F8">
-        <v>0.9876783021016491</v>
+        <v>0.987678302101647</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040063453794128</v>
+        <v>1.040063453794127</v>
       </c>
       <c r="J8">
-        <v>1.012152352545393</v>
+        <v>1.012152352545392</v>
       </c>
       <c r="K8">
-        <v>1.020590622285464</v>
+        <v>1.020590622285462</v>
       </c>
       <c r="L8">
-        <v>1.009616296129138</v>
+        <v>1.009616296129136</v>
       </c>
       <c r="M8">
-        <v>0.9990278065966585</v>
+        <v>0.9990278065966566</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683344346644415</v>
+        <v>0.9683344346644418</v>
       </c>
       <c r="D9">
-        <v>0.9931966523734819</v>
+        <v>0.9931966523734822</v>
       </c>
       <c r="E9">
-        <v>0.9773179620130973</v>
+        <v>0.9773179620130978</v>
       </c>
       <c r="F9">
-        <v>0.9624562442980102</v>
+        <v>0.9624562442980101</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>0.9950571674527221</v>
       </c>
       <c r="K9">
-        <v>1.006401082046119</v>
+        <v>1.00640108204612</v>
       </c>
       <c r="L9">
-        <v>0.9907900811445349</v>
+        <v>0.9907900811445354</v>
       </c>
       <c r="M9">
         <v>0.9761893019464208</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9521732071034856</v>
+        <v>0.9521732071034887</v>
       </c>
       <c r="D10">
-        <v>0.9811807529537504</v>
+        <v>0.981180752953753</v>
       </c>
       <c r="E10">
-        <v>0.961803222681163</v>
+        <v>0.9618032226811662</v>
       </c>
       <c r="F10">
-        <v>0.943879959570749</v>
+        <v>0.9438799595707523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02624703235616</v>
+        <v>1.026247032356161</v>
       </c>
       <c r="J10">
-        <v>0.9824218528857769</v>
+        <v>0.98242185288578</v>
       </c>
       <c r="K10">
-        <v>0.9958983164099136</v>
+        <v>0.9958983164099161</v>
       </c>
       <c r="L10">
-        <v>0.9768981660578475</v>
+        <v>0.9768981660578508</v>
       </c>
       <c r="M10">
-        <v>0.9593422136745712</v>
+        <v>0.9593422136745745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9447206568007241</v>
+        <v>0.9447206568007226</v>
       </c>
       <c r="D11">
-        <v>0.9756509566394701</v>
+        <v>0.9756509566394687</v>
       </c>
       <c r="E11">
-        <v>0.9546591561952057</v>
+        <v>0.9546591561952041</v>
       </c>
       <c r="F11">
-        <v>0.9353143740735367</v>
+        <v>0.9353143740735352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023501100634556</v>
+        <v>1.023501100634555</v>
       </c>
       <c r="J11">
-        <v>0.9765887333792388</v>
+        <v>0.9765887333792371</v>
       </c>
       <c r="K11">
-        <v>0.9910471475294707</v>
+        <v>0.9910471475294691</v>
       </c>
       <c r="L11">
-        <v>0.9704899687060543</v>
+        <v>0.9704899687060528</v>
       </c>
       <c r="M11">
-        <v>0.9515687468800226</v>
+        <v>0.9515687468800209</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9418748049787599</v>
+        <v>0.941874804978758</v>
       </c>
       <c r="D12">
-        <v>0.9735414085976727</v>
+        <v>0.973541408597671</v>
       </c>
       <c r="E12">
-        <v>0.9519328112731541</v>
+        <v>0.9519328112731522</v>
       </c>
       <c r="F12">
-        <v>0.932043229798832</v>
+        <v>0.93204322979883</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022449825338099</v>
+        <v>1.022449825338098</v>
       </c>
       <c r="J12">
-        <v>0.9743604492948371</v>
+        <v>0.9743604492948355</v>
       </c>
       <c r="K12">
-        <v>0.989193696620318</v>
+        <v>0.9891936966203165</v>
       </c>
       <c r="L12">
-        <v>0.9680427169982462</v>
+        <v>0.9680427169982446</v>
       </c>
       <c r="M12">
-        <v>0.9485994374111439</v>
+        <v>0.9485994374111421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9424889340656539</v>
+        <v>0.9424889340656557</v>
       </c>
       <c r="D13">
-        <v>0.9739965442587287</v>
+        <v>0.9739965442587301</v>
       </c>
       <c r="E13">
-        <v>0.9525210713401725</v>
+        <v>0.9525210713401741</v>
       </c>
       <c r="F13">
-        <v>0.9327491547618872</v>
+        <v>0.9327491547618887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022676807437799</v>
+        <v>1.0226768074378</v>
       </c>
       <c r="J13">
-        <v>0.9748413434708421</v>
+        <v>0.9748413434708436</v>
       </c>
       <c r="K13">
-        <v>0.9895937073137501</v>
+        <v>0.9895937073137514</v>
       </c>
       <c r="L13">
-        <v>0.9685708358822466</v>
+        <v>0.9685708358822482</v>
       </c>
       <c r="M13">
-        <v>0.9492402534342418</v>
+        <v>0.9492402534342435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.944487062459875</v>
+        <v>0.944487062459876</v>
       </c>
       <c r="D14">
-        <v>0.9754777554265899</v>
+        <v>0.9754777554265909</v>
       </c>
       <c r="E14">
-        <v>0.9544353357771795</v>
+        <v>0.9544353357771805</v>
       </c>
       <c r="F14">
-        <v>0.9350458784338287</v>
+        <v>0.9350458784338301</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023414863100384</v>
       </c>
       <c r="J14">
-        <v>0.976405846402853</v>
+        <v>0.976405846402854</v>
       </c>
       <c r="K14">
-        <v>0.9908950300278782</v>
+        <v>0.990895030027879</v>
       </c>
       <c r="L14">
-        <v>0.9702890957081993</v>
+        <v>0.9702890957082002</v>
       </c>
       <c r="M14">
-        <v>0.9513250386646678</v>
+        <v>0.9513250386646689</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457075755083837</v>
+        <v>0.9457075755083859</v>
       </c>
       <c r="D15">
-        <v>0.9763828054158851</v>
+        <v>0.976382805415887</v>
       </c>
       <c r="E15">
-        <v>0.9556048509358538</v>
+        <v>0.9556048509358567</v>
       </c>
       <c r="F15">
-        <v>0.936448735068759</v>
+        <v>0.9364487350687623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023865339282442</v>
+        <v>1.023865339282443</v>
       </c>
       <c r="J15">
-        <v>0.9773613844450574</v>
+        <v>0.9773613844450596</v>
       </c>
       <c r="K15">
-        <v>0.9916897948049935</v>
+        <v>0.9916897948049952</v>
       </c>
       <c r="L15">
-        <v>0.9713386348454444</v>
+        <v>0.9713386348454469</v>
       </c>
       <c r="M15">
-        <v>0.9525983576550552</v>
+        <v>0.9525983576550582</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9526574738835401</v>
+        <v>0.9526574738835395</v>
       </c>
       <c r="D16">
-        <v>0.981540340290892</v>
+        <v>0.9815403402908919</v>
       </c>
       <c r="E16">
-        <v>0.9622676690097216</v>
+        <v>0.9622676690097208</v>
       </c>
       <c r="F16">
-        <v>0.9444365360682577</v>
+        <v>0.9444365360682567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026425083858937</v>
+        <v>1.026425083858936</v>
       </c>
       <c r="J16">
-        <v>0.9828007670774819</v>
+        <v>0.9828007670774813</v>
       </c>
       <c r="K16">
-        <v>0.9962134001284327</v>
+        <v>0.9962134001284325</v>
       </c>
       <c r="L16">
-        <v>0.9773145368295454</v>
+        <v>0.9773145368295446</v>
       </c>
       <c r="M16">
-        <v>0.9598472215079749</v>
+        <v>0.959847221507974</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568892047070113</v>
+        <v>0.9568892047070082</v>
       </c>
       <c r="D17">
-        <v>0.9846838581459548</v>
+        <v>0.9846838581459524</v>
       </c>
       <c r="E17">
-        <v>0.9663273730292451</v>
+        <v>0.9663273730292418</v>
       </c>
       <c r="F17">
-        <v>0.9493001769082321</v>
+        <v>0.9493001769082283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027978856546252</v>
+        <v>1.027978856546251</v>
       </c>
       <c r="J17">
-        <v>0.9861111705801329</v>
+        <v>0.9861111705801299</v>
       </c>
       <c r="K17">
-        <v>0.9989658721202634</v>
+        <v>0.9989658721202611</v>
       </c>
       <c r="L17">
-        <v>0.9809527394232961</v>
+        <v>0.9809527394232926</v>
       </c>
       <c r="M17">
-        <v>0.9642596578943772</v>
+        <v>0.9642596578943736</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9593143545995109</v>
+        <v>0.9593143545995129</v>
       </c>
       <c r="D18">
-        <v>0.9864863781892992</v>
+        <v>0.9864863781893008</v>
       </c>
       <c r="E18">
-        <v>0.9686548883133205</v>
+        <v>0.9686548883133227</v>
       </c>
       <c r="F18">
-        <v>0.952087552026455</v>
+        <v>0.952087552026457</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028867516309976</v>
+        <v>1.028867516309977</v>
       </c>
       <c r="J18">
-        <v>0.9880077058609994</v>
+        <v>0.9880077058610016</v>
       </c>
       <c r="K18">
-        <v>1.000542523953886</v>
+        <v>1.000542523953887</v>
       </c>
       <c r="L18">
-        <v>0.9830375414761834</v>
+        <v>0.9830375414761855</v>
       </c>
       <c r="M18">
-        <v>0.9667879525969466</v>
+        <v>0.9667879525969487</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9601342041490271</v>
+        <v>0.9601342041490286</v>
       </c>
       <c r="D19">
-        <v>0.9870959015611052</v>
+        <v>0.9870959015611065</v>
       </c>
       <c r="E19">
-        <v>0.9694418887633287</v>
+        <v>0.96944188876333</v>
       </c>
       <c r="F19">
-        <v>0.9530298798709521</v>
+        <v>0.9530298798709536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029167630247304</v>
+        <v>1.029167630247305</v>
       </c>
       <c r="J19">
-        <v>0.9886487432386344</v>
+        <v>0.9886487432386359</v>
       </c>
       <c r="K19">
-        <v>1.001075395164464</v>
+        <v>1.001075395164466</v>
       </c>
       <c r="L19">
-        <v>0.9837422947078316</v>
+        <v>0.983742294707833</v>
       </c>
       <c r="M19">
-        <v>0.9676426065465618</v>
+        <v>0.967642606546563</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9564397046173048</v>
+        <v>0.9564397046173069</v>
       </c>
       <c r="D20">
-        <v>0.9843498416584078</v>
+        <v>0.9843498416584096</v>
       </c>
       <c r="E20">
-        <v>0.9658960457629582</v>
+        <v>0.9658960457629604</v>
       </c>
       <c r="F20">
-        <v>0.9487835478500384</v>
+        <v>0.9487835478500406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027813997762321</v>
+        <v>1.027813997762322</v>
       </c>
       <c r="J20">
-        <v>0.9857595981016302</v>
+        <v>0.9857595981016322</v>
       </c>
       <c r="K20">
-        <v>0.9986735779432145</v>
+        <v>0.9986735779432163</v>
       </c>
       <c r="L20">
-        <v>0.980566305224241</v>
+        <v>0.9805663052242433</v>
       </c>
       <c r="M20">
-        <v>0.9637910076139781</v>
+        <v>0.9637910076139803</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9439008912648836</v>
+        <v>0.9439008912648827</v>
       </c>
       <c r="D21">
-        <v>0.9750431667973305</v>
+        <v>0.9750431667973297</v>
       </c>
       <c r="E21">
-        <v>0.9538737187894991</v>
+        <v>0.953873718789498</v>
       </c>
       <c r="F21">
-        <v>0.9343721218485991</v>
+        <v>0.9343721218485982</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023198419687179</v>
+        <v>1.023198419687178</v>
       </c>
       <c r="J21">
-        <v>0.9759469051746653</v>
+        <v>0.9759469051746644</v>
       </c>
       <c r="K21">
-        <v>0.9905132984375842</v>
+        <v>0.9905132984375837</v>
       </c>
       <c r="L21">
-        <v>0.9697850312224123</v>
+        <v>0.9697850312224111</v>
       </c>
       <c r="M21">
-        <v>0.9507134727297315</v>
+        <v>0.9507134727297306</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9355619030345911</v>
+        <v>0.9355619030345943</v>
       </c>
       <c r="D22">
-        <v>0.9688661810539166</v>
+        <v>0.9688661810539194</v>
       </c>
       <c r="E22">
-        <v>0.9458883650330586</v>
+        <v>0.945888365033062</v>
       </c>
       <c r="F22">
-        <v>0.9247859390616672</v>
+        <v>0.9247859390616703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020112996360242</v>
+        <v>1.020112996360243</v>
       </c>
       <c r="J22">
-        <v>0.9694161267639871</v>
+        <v>0.9694161267639904</v>
       </c>
       <c r="K22">
-        <v>0.9850807069079209</v>
+        <v>0.9850807069079238</v>
       </c>
       <c r="L22">
-        <v>0.962613801724869</v>
+        <v>0.9626138017248723</v>
       </c>
       <c r="M22">
-        <v>0.9420106992198128</v>
+        <v>0.9420106992198163</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9400293629681201</v>
+        <v>0.9400293629681218</v>
       </c>
       <c r="D23">
-        <v>0.9721740762360234</v>
+        <v>0.9721740762360247</v>
       </c>
       <c r="E23">
-        <v>0.950165368550362</v>
+        <v>0.9501653685503636</v>
       </c>
       <c r="F23">
-        <v>0.9299218720414811</v>
+        <v>0.9299218720414828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02176736753657</v>
+        <v>1.021767367536571</v>
       </c>
       <c r="J23">
-        <v>0.9729152651350161</v>
+        <v>0.9729152651350178</v>
       </c>
       <c r="K23">
-        <v>0.9879915520425961</v>
+        <v>0.9879915520425976</v>
       </c>
       <c r="L23">
-        <v>0.9664557143502228</v>
+        <v>0.9664557143502244</v>
       </c>
       <c r="M23">
-        <v>0.9466736488691648</v>
+        <v>0.9466736488691663</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956642947008607</v>
+        <v>0.9566429470086073</v>
       </c>
       <c r="D24">
-        <v>0.9845008647827012</v>
+        <v>0.9845008647827017</v>
       </c>
       <c r="E24">
-        <v>0.9660910683228208</v>
+        <v>0.9660910683228211</v>
       </c>
       <c r="F24">
-        <v>0.9490171424497738</v>
+        <v>0.9490171424497746</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027888544576676</v>
       </c>
       <c r="J24">
-        <v>0.9859185642434084</v>
+        <v>0.9859185642434091</v>
       </c>
       <c r="K24">
-        <v>0.9988057417210258</v>
+        <v>0.9988057417210261</v>
       </c>
       <c r="L24">
-        <v>0.9807410328884519</v>
+        <v>0.9807410328884525</v>
       </c>
       <c r="M24">
-        <v>0.9640029100807407</v>
+        <v>0.9640029100807415</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9742488108402685</v>
+        <v>0.9742488108402675</v>
       </c>
       <c r="D25">
-        <v>0.9976011829241228</v>
+        <v>0.997601182924122</v>
       </c>
       <c r="E25">
-        <v>0.9830035575742015</v>
+        <v>0.9830035575742002</v>
       </c>
       <c r="F25">
-        <v>0.9692568424243351</v>
+        <v>0.9692568424243336</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034307452219039</v>
       </c>
       <c r="J25">
-        <v>0.9996750077923766</v>
+        <v>0.9996750077923755</v>
       </c>
       <c r="K25">
-        <v>1.01023685192603</v>
+        <v>1.010236851926029</v>
       </c>
       <c r="L25">
-        <v>0.995871578972001</v>
+        <v>0.9958715789719998</v>
       </c>
       <c r="M25">
-        <v>0.9823519223956695</v>
+        <v>0.9823519223956682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9872083618483323</v>
+        <v>0.9872083618483301</v>
       </c>
       <c r="D2">
-        <v>1.007263111950109</v>
+        <v>1.007263111950107</v>
       </c>
       <c r="E2">
-        <v>0.9954768143704505</v>
+        <v>0.995476814370448</v>
       </c>
       <c r="F2">
-        <v>0.9841674158239201</v>
+        <v>0.9841674158239181</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038974039175913</v>
+        <v>1.038974039175912</v>
       </c>
       <c r="J2">
-        <v>1.009778518053865</v>
+        <v>1.009778518053862</v>
       </c>
       <c r="K2">
-        <v>1.018622179048526</v>
+        <v>1.018622179048524</v>
       </c>
       <c r="L2">
-        <v>1.006999526123237</v>
+        <v>1.006999526123235</v>
       </c>
       <c r="M2">
-        <v>0.9958518211912503</v>
+        <v>0.9958518211912484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9960924339138225</v>
+        <v>0.996092433913822</v>
       </c>
       <c r="D3">
         <v>1.013893216793057</v>
@@ -468,7 +468,7 @@
         <v>1.004039758440116</v>
       </c>
       <c r="F3">
-        <v>0.9943994258976387</v>
+        <v>0.9943994258976379</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.016690192926065</v>
       </c>
       <c r="K3">
-        <v>1.02435136473148</v>
+        <v>1.024351364731479</v>
       </c>
       <c r="L3">
         <v>1.014621209444936</v>
       </c>
       <c r="M3">
-        <v>1.005104472257822</v>
+        <v>1.005104472257821</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001625378867921</v>
+        <v>1.001625378867923</v>
       </c>
       <c r="D4">
-        <v>1.018024285436985</v>
+        <v>1.018024285436987</v>
       </c>
       <c r="E4">
-        <v>1.00937790619905</v>
+        <v>1.009377906199052</v>
       </c>
       <c r="F4">
-        <v>1.000777592828619</v>
+        <v>1.000777592828622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044091013938957</v>
+        <v>1.044091013938958</v>
       </c>
       <c r="J4">
-        <v>1.02098759847457</v>
+        <v>1.020987598474572</v>
       </c>
       <c r="K4">
-        <v>1.027909933433544</v>
+        <v>1.027909933433545</v>
       </c>
       <c r="L4">
-        <v>1.019364450587798</v>
+        <v>1.0193644505878</v>
       </c>
       <c r="M4">
-        <v>1.010866642041306</v>
+        <v>1.010866642041308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>1.003903400268509</v>
       </c>
       <c r="D5">
-        <v>1.019725420461917</v>
+        <v>1.019725420461918</v>
       </c>
       <c r="E5">
-        <v>1.011576913588854</v>
+        <v>1.011576913588855</v>
       </c>
       <c r="F5">
-        <v>1.003405101775021</v>
+        <v>1.003405101775022</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.029372684402968</v>
       </c>
       <c r="L5">
-        <v>1.021316447300216</v>
+        <v>1.021316447300217</v>
       </c>
       <c r="M5">
-        <v>1.013239029915126</v>
+        <v>1.013239029915127</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -594,7 +594,7 @@
         <v>1.023049714294909</v>
       </c>
       <c r="K6">
-        <v>1.029616398004232</v>
+        <v>1.029616398004233</v>
       </c>
       <c r="L6">
         <v>1.021641812505837</v>
@@ -617,7 +617,7 @@
         <v>1.018047152719451</v>
       </c>
       <c r="E7">
-        <v>1.009407462677732</v>
+        <v>1.009407462677731</v>
       </c>
       <c r="F7">
         <v>1.000812908194318</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044101786189827</v>
+        <v>1.044101786189826</v>
       </c>
       <c r="J7">
-        <v>1.021011366667943</v>
+        <v>1.021011366667942</v>
       </c>
       <c r="K7">
         <v>1.027929606658669</v>
       </c>
       <c r="L7">
-        <v>1.019390694735949</v>
+        <v>1.019390694735948</v>
       </c>
       <c r="M7">
         <v>1.010898533851469</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9902577230267402</v>
+        <v>0.9902577230267423</v>
       </c>
       <c r="D8">
-        <v>1.009538321945628</v>
+        <v>1.00953832194563</v>
       </c>
       <c r="E8">
-        <v>0.998414809529708</v>
+        <v>0.9984148095297102</v>
       </c>
       <c r="F8">
-        <v>0.987678302101647</v>
+        <v>0.9876783021016491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040063453794127</v>
+        <v>1.040063453794128</v>
       </c>
       <c r="J8">
-        <v>1.012152352545392</v>
+        <v>1.012152352545393</v>
       </c>
       <c r="K8">
-        <v>1.020590622285462</v>
+        <v>1.020590622285464</v>
       </c>
       <c r="L8">
-        <v>1.009616296129136</v>
+        <v>1.009616296129138</v>
       </c>
       <c r="M8">
-        <v>0.9990278065966566</v>
+        <v>0.9990278065966585</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683344346644418</v>
+        <v>0.9683344346644415</v>
       </c>
       <c r="D9">
-        <v>0.9931966523734822</v>
+        <v>0.9931966523734819</v>
       </c>
       <c r="E9">
-        <v>0.9773179620130978</v>
+        <v>0.9773179620130973</v>
       </c>
       <c r="F9">
-        <v>0.9624562442980101</v>
+        <v>0.9624562442980102</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>0.9950571674527221</v>
       </c>
       <c r="K9">
-        <v>1.00640108204612</v>
+        <v>1.006401082046119</v>
       </c>
       <c r="L9">
-        <v>0.9907900811445354</v>
+        <v>0.9907900811445349</v>
       </c>
       <c r="M9">
         <v>0.9761893019464208</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9521732071034887</v>
+        <v>0.9521732071034856</v>
       </c>
       <c r="D10">
-        <v>0.981180752953753</v>
+        <v>0.9811807529537504</v>
       </c>
       <c r="E10">
-        <v>0.9618032226811662</v>
+        <v>0.961803222681163</v>
       </c>
       <c r="F10">
-        <v>0.9438799595707523</v>
+        <v>0.943879959570749</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026247032356161</v>
+        <v>1.02624703235616</v>
       </c>
       <c r="J10">
-        <v>0.98242185288578</v>
+        <v>0.9824218528857769</v>
       </c>
       <c r="K10">
-        <v>0.9958983164099161</v>
+        <v>0.9958983164099136</v>
       </c>
       <c r="L10">
-        <v>0.9768981660578508</v>
+        <v>0.9768981660578475</v>
       </c>
       <c r="M10">
-        <v>0.9593422136745745</v>
+        <v>0.9593422136745712</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9447206568007226</v>
+        <v>0.9447206568007241</v>
       </c>
       <c r="D11">
-        <v>0.9756509566394687</v>
+        <v>0.9756509566394701</v>
       </c>
       <c r="E11">
-        <v>0.9546591561952041</v>
+        <v>0.9546591561952057</v>
       </c>
       <c r="F11">
-        <v>0.9353143740735352</v>
+        <v>0.9353143740735367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023501100634555</v>
+        <v>1.023501100634556</v>
       </c>
       <c r="J11">
-        <v>0.9765887333792371</v>
+        <v>0.9765887333792388</v>
       </c>
       <c r="K11">
-        <v>0.9910471475294691</v>
+        <v>0.9910471475294707</v>
       </c>
       <c r="L11">
-        <v>0.9704899687060528</v>
+        <v>0.9704899687060543</v>
       </c>
       <c r="M11">
-        <v>0.9515687468800209</v>
+        <v>0.9515687468800226</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.941874804978758</v>
+        <v>0.9418748049787599</v>
       </c>
       <c r="D12">
-        <v>0.973541408597671</v>
+        <v>0.9735414085976727</v>
       </c>
       <c r="E12">
-        <v>0.9519328112731522</v>
+        <v>0.9519328112731541</v>
       </c>
       <c r="F12">
-        <v>0.93204322979883</v>
+        <v>0.932043229798832</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022449825338098</v>
+        <v>1.022449825338099</v>
       </c>
       <c r="J12">
-        <v>0.9743604492948355</v>
+        <v>0.9743604492948371</v>
       </c>
       <c r="K12">
-        <v>0.9891936966203165</v>
+        <v>0.989193696620318</v>
       </c>
       <c r="L12">
-        <v>0.9680427169982446</v>
+        <v>0.9680427169982462</v>
       </c>
       <c r="M12">
-        <v>0.9485994374111421</v>
+        <v>0.9485994374111439</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9424889340656557</v>
+        <v>0.9424889340656539</v>
       </c>
       <c r="D13">
-        <v>0.9739965442587301</v>
+        <v>0.9739965442587287</v>
       </c>
       <c r="E13">
-        <v>0.9525210713401741</v>
+        <v>0.9525210713401725</v>
       </c>
       <c r="F13">
-        <v>0.9327491547618887</v>
+        <v>0.9327491547618872</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0226768074378</v>
+        <v>1.022676807437799</v>
       </c>
       <c r="J13">
-        <v>0.9748413434708436</v>
+        <v>0.9748413434708421</v>
       </c>
       <c r="K13">
-        <v>0.9895937073137514</v>
+        <v>0.9895937073137501</v>
       </c>
       <c r="L13">
-        <v>0.9685708358822482</v>
+        <v>0.9685708358822466</v>
       </c>
       <c r="M13">
-        <v>0.9492402534342435</v>
+        <v>0.9492402534342418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.944487062459876</v>
+        <v>0.944487062459875</v>
       </c>
       <c r="D14">
-        <v>0.9754777554265909</v>
+        <v>0.9754777554265899</v>
       </c>
       <c r="E14">
-        <v>0.9544353357771805</v>
+        <v>0.9544353357771795</v>
       </c>
       <c r="F14">
-        <v>0.9350458784338301</v>
+        <v>0.9350458784338287</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023414863100384</v>
       </c>
       <c r="J14">
-        <v>0.976405846402854</v>
+        <v>0.976405846402853</v>
       </c>
       <c r="K14">
-        <v>0.990895030027879</v>
+        <v>0.9908950300278782</v>
       </c>
       <c r="L14">
-        <v>0.9702890957082002</v>
+        <v>0.9702890957081993</v>
       </c>
       <c r="M14">
-        <v>0.9513250386646689</v>
+        <v>0.9513250386646678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457075755083859</v>
+        <v>0.9457075755083837</v>
       </c>
       <c r="D15">
-        <v>0.976382805415887</v>
+        <v>0.9763828054158851</v>
       </c>
       <c r="E15">
-        <v>0.9556048509358567</v>
+        <v>0.9556048509358538</v>
       </c>
       <c r="F15">
-        <v>0.9364487350687623</v>
+        <v>0.936448735068759</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023865339282443</v>
+        <v>1.023865339282442</v>
       </c>
       <c r="J15">
-        <v>0.9773613844450596</v>
+        <v>0.9773613844450574</v>
       </c>
       <c r="K15">
-        <v>0.9916897948049952</v>
+        <v>0.9916897948049935</v>
       </c>
       <c r="L15">
-        <v>0.9713386348454469</v>
+        <v>0.9713386348454444</v>
       </c>
       <c r="M15">
-        <v>0.9525983576550582</v>
+        <v>0.9525983576550552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9526574738835395</v>
+        <v>0.9526574738835401</v>
       </c>
       <c r="D16">
-        <v>0.9815403402908919</v>
+        <v>0.981540340290892</v>
       </c>
       <c r="E16">
-        <v>0.9622676690097208</v>
+        <v>0.9622676690097216</v>
       </c>
       <c r="F16">
-        <v>0.9444365360682567</v>
+        <v>0.9444365360682577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026425083858936</v>
+        <v>1.026425083858937</v>
       </c>
       <c r="J16">
-        <v>0.9828007670774813</v>
+        <v>0.9828007670774819</v>
       </c>
       <c r="K16">
-        <v>0.9962134001284325</v>
+        <v>0.9962134001284327</v>
       </c>
       <c r="L16">
-        <v>0.9773145368295446</v>
+        <v>0.9773145368295454</v>
       </c>
       <c r="M16">
-        <v>0.959847221507974</v>
+        <v>0.9598472215079749</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568892047070082</v>
+        <v>0.9568892047070113</v>
       </c>
       <c r="D17">
-        <v>0.9846838581459524</v>
+        <v>0.9846838581459548</v>
       </c>
       <c r="E17">
-        <v>0.9663273730292418</v>
+        <v>0.9663273730292451</v>
       </c>
       <c r="F17">
-        <v>0.9493001769082283</v>
+        <v>0.9493001769082321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027978856546251</v>
+        <v>1.027978856546252</v>
       </c>
       <c r="J17">
-        <v>0.9861111705801299</v>
+        <v>0.9861111705801329</v>
       </c>
       <c r="K17">
-        <v>0.9989658721202611</v>
+        <v>0.9989658721202634</v>
       </c>
       <c r="L17">
-        <v>0.9809527394232926</v>
+        <v>0.9809527394232961</v>
       </c>
       <c r="M17">
-        <v>0.9642596578943736</v>
+        <v>0.9642596578943772</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9593143545995129</v>
+        <v>0.9593143545995109</v>
       </c>
       <c r="D18">
-        <v>0.9864863781893008</v>
+        <v>0.9864863781892992</v>
       </c>
       <c r="E18">
-        <v>0.9686548883133227</v>
+        <v>0.9686548883133205</v>
       </c>
       <c r="F18">
-        <v>0.952087552026457</v>
+        <v>0.952087552026455</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028867516309977</v>
+        <v>1.028867516309976</v>
       </c>
       <c r="J18">
-        <v>0.9880077058610016</v>
+        <v>0.9880077058609994</v>
       </c>
       <c r="K18">
-        <v>1.000542523953887</v>
+        <v>1.000542523953886</v>
       </c>
       <c r="L18">
-        <v>0.9830375414761855</v>
+        <v>0.9830375414761834</v>
       </c>
       <c r="M18">
-        <v>0.9667879525969487</v>
+        <v>0.9667879525969466</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9601342041490286</v>
+        <v>0.9601342041490271</v>
       </c>
       <c r="D19">
-        <v>0.9870959015611065</v>
+        <v>0.9870959015611052</v>
       </c>
       <c r="E19">
-        <v>0.96944188876333</v>
+        <v>0.9694418887633287</v>
       </c>
       <c r="F19">
-        <v>0.9530298798709536</v>
+        <v>0.9530298798709521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029167630247305</v>
+        <v>1.029167630247304</v>
       </c>
       <c r="J19">
-        <v>0.9886487432386359</v>
+        <v>0.9886487432386344</v>
       </c>
       <c r="K19">
-        <v>1.001075395164466</v>
+        <v>1.001075395164464</v>
       </c>
       <c r="L19">
-        <v>0.983742294707833</v>
+        <v>0.9837422947078316</v>
       </c>
       <c r="M19">
-        <v>0.967642606546563</v>
+        <v>0.9676426065465618</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9564397046173069</v>
+        <v>0.9564397046173048</v>
       </c>
       <c r="D20">
-        <v>0.9843498416584096</v>
+        <v>0.9843498416584078</v>
       </c>
       <c r="E20">
-        <v>0.9658960457629604</v>
+        <v>0.9658960457629582</v>
       </c>
       <c r="F20">
-        <v>0.9487835478500406</v>
+        <v>0.9487835478500384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027813997762322</v>
+        <v>1.027813997762321</v>
       </c>
       <c r="J20">
-        <v>0.9857595981016322</v>
+        <v>0.9857595981016302</v>
       </c>
       <c r="K20">
-        <v>0.9986735779432163</v>
+        <v>0.9986735779432145</v>
       </c>
       <c r="L20">
-        <v>0.9805663052242433</v>
+        <v>0.980566305224241</v>
       </c>
       <c r="M20">
-        <v>0.9637910076139803</v>
+        <v>0.9637910076139781</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9439008912648827</v>
+        <v>0.9439008912648836</v>
       </c>
       <c r="D21">
-        <v>0.9750431667973297</v>
+        <v>0.9750431667973305</v>
       </c>
       <c r="E21">
-        <v>0.953873718789498</v>
+        <v>0.9538737187894991</v>
       </c>
       <c r="F21">
-        <v>0.9343721218485982</v>
+        <v>0.9343721218485991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023198419687178</v>
+        <v>1.023198419687179</v>
       </c>
       <c r="J21">
-        <v>0.9759469051746644</v>
+        <v>0.9759469051746653</v>
       </c>
       <c r="K21">
-        <v>0.9905132984375837</v>
+        <v>0.9905132984375842</v>
       </c>
       <c r="L21">
-        <v>0.9697850312224111</v>
+        <v>0.9697850312224123</v>
       </c>
       <c r="M21">
-        <v>0.9507134727297306</v>
+        <v>0.9507134727297315</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9355619030345943</v>
+        <v>0.9355619030345911</v>
       </c>
       <c r="D22">
-        <v>0.9688661810539194</v>
+        <v>0.9688661810539166</v>
       </c>
       <c r="E22">
-        <v>0.945888365033062</v>
+        <v>0.9458883650330586</v>
       </c>
       <c r="F22">
-        <v>0.9247859390616703</v>
+        <v>0.9247859390616672</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020112996360243</v>
+        <v>1.020112996360242</v>
       </c>
       <c r="J22">
-        <v>0.9694161267639904</v>
+        <v>0.9694161267639871</v>
       </c>
       <c r="K22">
-        <v>0.9850807069079238</v>
+        <v>0.9850807069079209</v>
       </c>
       <c r="L22">
-        <v>0.9626138017248723</v>
+        <v>0.962613801724869</v>
       </c>
       <c r="M22">
-        <v>0.9420106992198163</v>
+        <v>0.9420106992198128</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9400293629681218</v>
+        <v>0.9400293629681201</v>
       </c>
       <c r="D23">
-        <v>0.9721740762360247</v>
+        <v>0.9721740762360234</v>
       </c>
       <c r="E23">
-        <v>0.9501653685503636</v>
+        <v>0.950165368550362</v>
       </c>
       <c r="F23">
-        <v>0.9299218720414828</v>
+        <v>0.9299218720414811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021767367536571</v>
+        <v>1.02176736753657</v>
       </c>
       <c r="J23">
-        <v>0.9729152651350178</v>
+        <v>0.9729152651350161</v>
       </c>
       <c r="K23">
-        <v>0.9879915520425976</v>
+        <v>0.9879915520425961</v>
       </c>
       <c r="L23">
-        <v>0.9664557143502244</v>
+        <v>0.9664557143502228</v>
       </c>
       <c r="M23">
-        <v>0.9466736488691663</v>
+        <v>0.9466736488691648</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9566429470086073</v>
+        <v>0.956642947008607</v>
       </c>
       <c r="D24">
-        <v>0.9845008647827017</v>
+        <v>0.9845008647827012</v>
       </c>
       <c r="E24">
-        <v>0.9660910683228211</v>
+        <v>0.9660910683228208</v>
       </c>
       <c r="F24">
-        <v>0.9490171424497746</v>
+        <v>0.9490171424497738</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027888544576676</v>
       </c>
       <c r="J24">
-        <v>0.9859185642434091</v>
+        <v>0.9859185642434084</v>
       </c>
       <c r="K24">
-        <v>0.9988057417210261</v>
+        <v>0.9988057417210258</v>
       </c>
       <c r="L24">
-        <v>0.9807410328884525</v>
+        <v>0.9807410328884519</v>
       </c>
       <c r="M24">
-        <v>0.9640029100807415</v>
+        <v>0.9640029100807407</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9742488108402675</v>
+        <v>0.9742488108402685</v>
       </c>
       <c r="D25">
-        <v>0.997601182924122</v>
+        <v>0.9976011829241228</v>
       </c>
       <c r="E25">
-        <v>0.9830035575742002</v>
+        <v>0.9830035575742015</v>
       </c>
       <c r="F25">
-        <v>0.9692568424243336</v>
+        <v>0.9692568424243351</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034307452219039</v>
       </c>
       <c r="J25">
-        <v>0.9996750077923755</v>
+        <v>0.9996750077923766</v>
       </c>
       <c r="K25">
-        <v>1.010236851926029</v>
+        <v>1.01023685192603</v>
       </c>
       <c r="L25">
-        <v>0.9958715789719998</v>
+        <v>0.995871578972001</v>
       </c>
       <c r="M25">
-        <v>0.9823519223956682</v>
+        <v>0.9823519223956695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9872083618483301</v>
+        <v>0.9872332408621088</v>
       </c>
       <c r="D2">
-        <v>1.007263111950107</v>
+        <v>1.007283743361848</v>
       </c>
       <c r="E2">
-        <v>0.995476814370448</v>
+        <v>0.9955016543336931</v>
       </c>
       <c r="F2">
-        <v>0.9841674158239181</v>
+        <v>0.9841930646576629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038974039175912</v>
+        <v>1.038985585584021</v>
       </c>
       <c r="J2">
-        <v>1.009778518053862</v>
+        <v>1.009802626090391</v>
       </c>
       <c r="K2">
-        <v>1.018622179048524</v>
+        <v>1.018642528236083</v>
       </c>
       <c r="L2">
-        <v>1.006999526123235</v>
+        <v>1.007024016052417</v>
       </c>
       <c r="M2">
-        <v>0.9958518211912484</v>
+        <v>0.9958770979868009</v>
+      </c>
+      <c r="N2">
+        <v>1.006914270864149</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.996092433913822</v>
+        <v>0.9961100511137183</v>
       </c>
       <c r="D3">
-        <v>1.013893216793057</v>
+        <v>1.013908091915039</v>
       </c>
       <c r="E3">
-        <v>1.004039758440116</v>
+        <v>1.004057364204848</v>
       </c>
       <c r="F3">
-        <v>0.9943994258976379</v>
+        <v>0.9944175507318691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042137647969092</v>
+        <v>1.04214596684301</v>
       </c>
       <c r="J3">
-        <v>1.016690192926065</v>
+        <v>1.0167073247236</v>
       </c>
       <c r="K3">
-        <v>1.024351364731479</v>
+        <v>1.024366055966517</v>
       </c>
       <c r="L3">
-        <v>1.014621209444936</v>
+        <v>1.01463859220287</v>
       </c>
       <c r="M3">
-        <v>1.005104472257821</v>
+        <v>1.005122361905617</v>
+      </c>
+      <c r="N3">
+        <v>1.011842820771339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001625378867923</v>
+        <v>1.001638595423544</v>
       </c>
       <c r="D4">
-        <v>1.018024285436987</v>
+        <v>1.018035663928167</v>
       </c>
       <c r="E4">
-        <v>1.009377906199052</v>
+        <v>1.009391121382634</v>
       </c>
       <c r="F4">
-        <v>1.000777592828622</v>
+        <v>1.000791173300521</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044091013938958</v>
+        <v>1.044097368136558</v>
       </c>
       <c r="J4">
-        <v>1.020987598474572</v>
+        <v>1.021000478436689</v>
       </c>
       <c r="K4">
-        <v>1.027909933433545</v>
+        <v>1.027921180541834</v>
       </c>
       <c r="L4">
-        <v>1.0193644505878</v>
+        <v>1.019377509927669</v>
       </c>
       <c r="M4">
-        <v>1.010866642041308</v>
+        <v>1.010880058927633</v>
+      </c>
+      <c r="N4">
+        <v>1.014902923845258</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003903400268509</v>
+        <v>1.00391483050131</v>
       </c>
       <c r="D5">
-        <v>1.019725420461918</v>
+        <v>1.019735377928807</v>
       </c>
       <c r="E5">
-        <v>1.011576913588855</v>
+        <v>1.011588345129292</v>
       </c>
       <c r="F5">
-        <v>1.003405101775022</v>
+        <v>1.003416840825248</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044891119545773</v>
+        <v>1.044896674357587</v>
       </c>
       <c r="J5">
-        <v>1.022755150414097</v>
+        <v>1.022766299220098</v>
       </c>
       <c r="K5">
-        <v>1.029372684402968</v>
+        <v>1.029382530227127</v>
       </c>
       <c r="L5">
-        <v>1.021316447300217</v>
+        <v>1.02132774811067</v>
       </c>
       <c r="M5">
-        <v>1.013239029915127</v>
+        <v>1.013250632001275</v>
+      </c>
+      <c r="N5">
+        <v>1.016160500528275</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004283170921186</v>
+        <v>1.00429430475629</v>
       </c>
       <c r="D6">
-        <v>1.020009030883838</v>
+        <v>1.020018752476795</v>
       </c>
       <c r="E6">
-        <v>1.011943580008167</v>
+        <v>1.011954715518045</v>
       </c>
       <c r="F6">
-        <v>1.003843226781914</v>
+        <v>1.003854660472291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045024260431775</v>
+        <v>1.045029682500179</v>
       </c>
       <c r="J6">
-        <v>1.023049714294909</v>
+        <v>1.023060575564037</v>
       </c>
       <c r="K6">
-        <v>1.029616398004233</v>
+        <v>1.029626011140816</v>
       </c>
       <c r="L6">
-        <v>1.021641812505837</v>
+        <v>1.021652821331783</v>
       </c>
       <c r="M6">
-        <v>1.013634533720138</v>
+        <v>1.013645834727162</v>
+      </c>
+      <c r="N6">
+        <v>1.01637001293187</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001656002160711</v>
+        <v>1.001669194606369</v>
       </c>
       <c r="D7">
-        <v>1.018047152719451</v>
+        <v>1.018058512037298</v>
       </c>
       <c r="E7">
-        <v>1.009407462677731</v>
+        <v>1.009420653792874</v>
       </c>
       <c r="F7">
-        <v>1.000812908194318</v>
+        <v>1.000826463800167</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044101786189826</v>
+        <v>1.04410812960533</v>
       </c>
       <c r="J7">
-        <v>1.021011366667942</v>
+        <v>1.021024223284828</v>
       </c>
       <c r="K7">
-        <v>1.027929606658669</v>
+        <v>1.027940834866161</v>
       </c>
       <c r="L7">
-        <v>1.019390694735948</v>
+        <v>1.019403730354644</v>
       </c>
       <c r="M7">
-        <v>1.010898533851469</v>
+        <v>1.010911926240447</v>
+      </c>
+      <c r="N7">
+        <v>1.014919838694597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9902577230267423</v>
+        <v>0.9902800811027505</v>
       </c>
       <c r="D8">
-        <v>1.00953832194563</v>
+        <v>1.009556957091485</v>
       </c>
       <c r="E8">
-        <v>0.9984148095297102</v>
+        <v>0.9984371397156803</v>
       </c>
       <c r="F8">
-        <v>0.9876783021016491</v>
+        <v>0.9877013354301408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040063453794128</v>
+        <v>1.040073881822432</v>
       </c>
       <c r="J8">
-        <v>1.012152352545393</v>
+        <v>1.012174044411124</v>
       </c>
       <c r="K8">
-        <v>1.020590622285464</v>
+        <v>1.020609010961319</v>
       </c>
       <c r="L8">
-        <v>1.009616296129138</v>
+        <v>1.009638322637176</v>
       </c>
       <c r="M8">
-        <v>0.9990278065966585</v>
+        <v>0.9990505180304798</v>
+      </c>
+      <c r="N8">
+        <v>1.008607878371508</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683344346644415</v>
+        <v>0.9683756514155433</v>
       </c>
       <c r="D9">
-        <v>0.9931966523734819</v>
+        <v>0.9932301641649219</v>
       </c>
       <c r="E9">
-        <v>0.9773179620130973</v>
+        <v>0.977359025910812</v>
       </c>
       <c r="F9">
-        <v>0.9624562442980102</v>
+        <v>0.9624989362495685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032160264317008</v>
+        <v>1.032179005357319</v>
       </c>
       <c r="J9">
-        <v>0.9950571674527221</v>
+        <v>0.9950967910031142</v>
       </c>
       <c r="K9">
-        <v>1.006401082046119</v>
+        <v>1.006434040529218</v>
       </c>
       <c r="L9">
-        <v>0.9907900811445349</v>
+        <v>0.9908304382664926</v>
       </c>
       <c r="M9">
-        <v>0.9761893019464208</v>
+        <v>0.9762312293330843</v>
+      </c>
+      <c r="N9">
+        <v>0.9963943547976762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9521732071034856</v>
+        <v>0.9522295763134934</v>
       </c>
       <c r="D10">
-        <v>0.9811807529537504</v>
+        <v>0.9812261147875188</v>
       </c>
       <c r="E10">
-        <v>0.961803222681163</v>
+        <v>0.9618592683643805</v>
       </c>
       <c r="F10">
-        <v>0.943879959570749</v>
+        <v>0.9439386030149125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02624703235616</v>
+        <v>1.026272363545429</v>
       </c>
       <c r="J10">
-        <v>0.9824218528857769</v>
+        <v>0.9824756504913252</v>
       </c>
       <c r="K10">
-        <v>0.9958983164099136</v>
+        <v>0.9959428176780197</v>
       </c>
       <c r="L10">
-        <v>0.9768981660578475</v>
+        <v>0.976953091403105</v>
       </c>
       <c r="M10">
-        <v>0.9593422136745712</v>
+        <v>0.9593996252189294</v>
+      </c>
+      <c r="N10">
+        <v>0.9873476009696023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9447206568007241</v>
+        <v>0.944784437900387</v>
       </c>
       <c r="D11">
-        <v>0.9756509566394701</v>
+        <v>0.9757020794079546</v>
       </c>
       <c r="E11">
-        <v>0.9546591561952057</v>
+        <v>0.9547225074782979</v>
       </c>
       <c r="F11">
-        <v>0.9353143740735367</v>
+        <v>0.9353808713788763</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023501100634556</v>
+        <v>1.023529626873536</v>
       </c>
       <c r="J11">
-        <v>0.9765887333792388</v>
+        <v>0.9766493916314456</v>
       </c>
       <c r="K11">
-        <v>0.9910471475294707</v>
+        <v>0.9910972418769175</v>
       </c>
       <c r="L11">
-        <v>0.9704899687060543</v>
+        <v>0.9705519702429413</v>
       </c>
       <c r="M11">
-        <v>0.9515687468800226</v>
+        <v>0.9516337481960601</v>
+      </c>
+      <c r="N11">
+        <v>0.9831674242106277</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9418748049787599</v>
+        <v>0.9419414946832636</v>
       </c>
       <c r="D12">
-        <v>0.9735414085976727</v>
+        <v>0.9735947855866965</v>
       </c>
       <c r="E12">
-        <v>0.9519328112731541</v>
+        <v>0.9519990253967605</v>
       </c>
       <c r="F12">
-        <v>0.932043229798832</v>
+        <v>0.9321128183362771</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022449825338099</v>
+        <v>1.022479600343376</v>
       </c>
       <c r="J12">
-        <v>0.9743604492948371</v>
+        <v>0.9744237871948921</v>
       </c>
       <c r="K12">
-        <v>0.989193696620318</v>
+        <v>0.9892459763943974</v>
       </c>
       <c r="L12">
-        <v>0.9680427169982462</v>
+        <v>0.9681074867080559</v>
       </c>
       <c r="M12">
-        <v>0.9485994374111439</v>
+        <v>0.9486674200556</v>
+      </c>
+      <c r="N12">
+        <v>0.9815701097601389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9424889340656539</v>
+        <v>0.9425549922966157</v>
       </c>
       <c r="D13">
-        <v>0.9739965442587287</v>
+        <v>0.9740494321577163</v>
       </c>
       <c r="E13">
-        <v>0.9525210713401725</v>
+        <v>0.9525866641190555</v>
       </c>
       <c r="F13">
-        <v>0.9327491547618872</v>
+        <v>0.9328180717364695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022676807437799</v>
+        <v>1.022706311569456</v>
       </c>
       <c r="J13">
-        <v>0.9748413434708421</v>
+        <v>0.9749041002026478</v>
       </c>
       <c r="K13">
-        <v>0.9895937073137501</v>
+        <v>0.989645513069311</v>
       </c>
       <c r="L13">
-        <v>0.9685708358822466</v>
+        <v>0.9686350050184559</v>
       </c>
       <c r="M13">
-        <v>0.9492402534342418</v>
+        <v>0.9493075886747746</v>
+      </c>
+      <c r="N13">
+        <v>0.9819148512417084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.944487062459875</v>
+        <v>0.9445510806252255</v>
       </c>
       <c r="D14">
-        <v>0.9754777554265899</v>
+        <v>0.9755290620630466</v>
       </c>
       <c r="E14">
-        <v>0.9544353357771795</v>
+        <v>0.9544989204811115</v>
       </c>
       <c r="F14">
-        <v>0.9350458784338287</v>
+        <v>0.9351126274960821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023414863100384</v>
+        <v>1.023443491225938</v>
       </c>
       <c r="J14">
-        <v>0.976405846402853</v>
+        <v>0.9764667233235195</v>
       </c>
       <c r="K14">
-        <v>0.9908950300278782</v>
+        <v>0.9909453026965225</v>
       </c>
       <c r="L14">
-        <v>0.9702890957081993</v>
+        <v>0.9703513230465697</v>
       </c>
       <c r="M14">
-        <v>0.9513250386646678</v>
+        <v>0.951390282911484</v>
+      </c>
+      <c r="N14">
+        <v>0.9830363329903357</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457075755083837</v>
+        <v>0.9457703582885677</v>
       </c>
       <c r="D15">
-        <v>0.9763828054158851</v>
+        <v>0.976433153620518</v>
       </c>
       <c r="E15">
-        <v>0.9556048509358538</v>
+        <v>0.9556672190822405</v>
       </c>
       <c r="F15">
-        <v>0.936448735068759</v>
+        <v>0.9365141725650931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023865339282442</v>
+        <v>1.023893436254746</v>
       </c>
       <c r="J15">
-        <v>0.9773613844450574</v>
+        <v>0.9774211213346838</v>
       </c>
       <c r="K15">
-        <v>0.9916897948049935</v>
+        <v>0.9917391378281418</v>
       </c>
       <c r="L15">
-        <v>0.9713386348454444</v>
+        <v>0.9713996851425151</v>
       </c>
       <c r="M15">
-        <v>0.9525983576550552</v>
+        <v>0.9526623360733815</v>
+      </c>
+      <c r="N15">
+        <v>0.9837212331889615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9526574738835401</v>
+        <v>0.9527133713078183</v>
       </c>
       <c r="D16">
-        <v>0.981540340290892</v>
+        <v>0.9815853346248362</v>
       </c>
       <c r="E16">
-        <v>0.9622676690097216</v>
+        <v>0.9623232491679116</v>
       </c>
       <c r="F16">
-        <v>0.9444365360682577</v>
+        <v>0.9444946807323312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026425083858937</v>
+        <v>1.026450211045092</v>
       </c>
       <c r="J16">
-        <v>0.9828007670774819</v>
+        <v>0.9828541263976899</v>
       </c>
       <c r="K16">
-        <v>0.9962134001284327</v>
+        <v>0.9962575442071218</v>
       </c>
       <c r="L16">
-        <v>0.9773145368295454</v>
+        <v>0.9773690106652113</v>
       </c>
       <c r="M16">
-        <v>0.9598472215079749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9599041502998805</v>
+      </c>
+      <c r="N16">
+        <v>0.9876190726901312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568892047070113</v>
+        <v>0.9569410281781204</v>
       </c>
       <c r="D17">
-        <v>0.9846838581459548</v>
+        <v>0.9847256750990704</v>
       </c>
       <c r="E17">
-        <v>0.9663273730292451</v>
+        <v>0.9663789307710206</v>
       </c>
       <c r="F17">
-        <v>0.9493001769082321</v>
+        <v>0.9493540201821331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027978856546252</v>
+        <v>1.028002218970493</v>
       </c>
       <c r="J17">
-        <v>0.9861111705801329</v>
+        <v>0.9861607372066912</v>
       </c>
       <c r="K17">
-        <v>0.9989658721202634</v>
+        <v>0.9990069259218982</v>
       </c>
       <c r="L17">
-        <v>0.9809527394232961</v>
+        <v>0.9810033088807132</v>
       </c>
       <c r="M17">
-        <v>0.9642596578943772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9643124197728959</v>
+      </c>
+      <c r="N17">
+        <v>0.9899903935073572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9593143545995109</v>
+        <v>0.959363881674843</v>
       </c>
       <c r="D18">
-        <v>0.9864863781892992</v>
+        <v>0.9865264010207104</v>
       </c>
       <c r="E18">
-        <v>0.9686548883133205</v>
+        <v>0.9687041767106548</v>
       </c>
       <c r="F18">
-        <v>0.952087552026455</v>
+        <v>0.9521389751749006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028867516309976</v>
+        <v>1.028889881473553</v>
       </c>
       <c r="J18">
-        <v>0.9880077058609994</v>
+        <v>0.9880551282432444</v>
       </c>
       <c r="K18">
-        <v>1.000542523953886</v>
+        <v>1.000581831178584</v>
       </c>
       <c r="L18">
-        <v>0.9830375414761834</v>
+        <v>0.9830859057353157</v>
       </c>
       <c r="M18">
-        <v>0.9667879525969466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9668383670387031</v>
+      </c>
+      <c r="N18">
+        <v>0.9913485744197975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9601342041490271</v>
+        <v>0.9601829610386782</v>
       </c>
       <c r="D19">
-        <v>0.9870959015611052</v>
+        <v>0.987135322166763</v>
       </c>
       <c r="E19">
-        <v>0.9694418887633287</v>
+        <v>0.969490415724499</v>
       </c>
       <c r="F19">
-        <v>0.9530298798709521</v>
+        <v>0.9530804920574752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029167630247304</v>
+        <v>1.029189660535088</v>
       </c>
       <c r="J19">
-        <v>0.9886487432386344</v>
+        <v>0.9886954454253086</v>
       </c>
       <c r="K19">
-        <v>1.001075395164464</v>
+        <v>1.001114115853405</v>
       </c>
       <c r="L19">
-        <v>0.9837422947078316</v>
+        <v>0.9837899186540304</v>
       </c>
       <c r="M19">
-        <v>0.9676426065465618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9676922339007549</v>
+      </c>
+      <c r="N19">
+        <v>0.9918075832933565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9564397046173048</v>
+        <v>0.9564919567474411</v>
       </c>
       <c r="D20">
-        <v>0.9843498416584078</v>
+        <v>0.9843919932661584</v>
       </c>
       <c r="E20">
-        <v>0.9658960457629582</v>
+        <v>0.9659480269544516</v>
       </c>
       <c r="F20">
-        <v>0.9487835478500384</v>
+        <v>0.9488378432360027</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027813997762321</v>
+        <v>1.027837546140923</v>
       </c>
       <c r="J20">
-        <v>0.9857595981016302</v>
+        <v>0.9858095644734596</v>
       </c>
       <c r="K20">
-        <v>0.9986735779432145</v>
+        <v>0.9987149573991349</v>
       </c>
       <c r="L20">
-        <v>0.980566305224241</v>
+        <v>0.9806172859654378</v>
       </c>
       <c r="M20">
-        <v>0.9637910076139781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9638442077869639</v>
+      </c>
+      <c r="N20">
+        <v>0.9897385898614486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9439008912648836</v>
+        <v>0.9439655056242539</v>
       </c>
       <c r="D21">
-        <v>0.9750431667973305</v>
+        <v>0.9750949357333893</v>
       </c>
       <c r="E21">
-        <v>0.9538737187894991</v>
+        <v>0.9539378904541702</v>
       </c>
       <c r="F21">
-        <v>0.9343721218485991</v>
+        <v>0.9344395042037128</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023198419687179</v>
+        <v>1.023227303962985</v>
       </c>
       <c r="J21">
-        <v>0.9759469051746653</v>
+        <v>0.9760083318147702</v>
       </c>
       <c r="K21">
-        <v>0.9905132984375842</v>
+        <v>0.9905640194087331</v>
       </c>
       <c r="L21">
-        <v>0.9697850312224123</v>
+        <v>0.9698478262836688</v>
       </c>
       <c r="M21">
-        <v>0.9507134727297315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9507793279693062</v>
+      </c>
+      <c r="N21">
+        <v>0.982707362266384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9355619030345911</v>
+        <v>0.9356352097971092</v>
       </c>
       <c r="D22">
-        <v>0.9688661810539166</v>
+        <v>0.9689246726247094</v>
       </c>
       <c r="E22">
-        <v>0.9458883650330586</v>
+        <v>0.9459610836751604</v>
       </c>
       <c r="F22">
-        <v>0.9247859390616672</v>
+        <v>0.9248625794088415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020112996360242</v>
+        <v>1.020145601833849</v>
       </c>
       <c r="J22">
-        <v>0.9694161267639871</v>
+        <v>0.9694855349166627</v>
       </c>
       <c r="K22">
-        <v>0.9850807069079209</v>
+        <v>0.985137938926416</v>
       </c>
       <c r="L22">
-        <v>0.962613801724869</v>
+        <v>0.9626848511502099</v>
       </c>
       <c r="M22">
-        <v>0.9420106992198128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9420854706387991</v>
+      </c>
+      <c r="N22">
+        <v>0.9780251042080962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9400293629681201</v>
+        <v>0.9400979630647348</v>
       </c>
       <c r="D23">
-        <v>0.9721740762360234</v>
+        <v>0.9722289318061189</v>
       </c>
       <c r="E23">
-        <v>0.950165368550362</v>
+        <v>0.9502334617731903</v>
       </c>
       <c r="F23">
-        <v>0.9299218720414811</v>
+        <v>0.9299934937383108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02176736753657</v>
+        <v>1.021797961205727</v>
       </c>
       <c r="J23">
-        <v>0.9729152651350161</v>
+        <v>0.9729803592344992</v>
       </c>
       <c r="K23">
-        <v>0.9879915520425961</v>
+        <v>0.9880452643494273</v>
       </c>
       <c r="L23">
-        <v>0.9664557143502228</v>
+        <v>0.9665222995902381</v>
       </c>
       <c r="M23">
-        <v>0.9466736488691648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.946743590581417</v>
+      </c>
+      <c r="N23">
+        <v>0.980534032327554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956642947008607</v>
+        <v>0.9566950052013621</v>
       </c>
       <c r="D24">
-        <v>0.9845008647827012</v>
+        <v>0.9845428649929456</v>
       </c>
       <c r="E24">
-        <v>0.9660910683228208</v>
+        <v>0.9661428579399924</v>
       </c>
       <c r="F24">
-        <v>0.9490171424497738</v>
+        <v>0.9490712332736321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027888544576676</v>
+        <v>1.0279120088321</v>
       </c>
       <c r="J24">
-        <v>0.9859185642434084</v>
+        <v>0.9859683497791566</v>
       </c>
       <c r="K24">
-        <v>0.9988057417210258</v>
+        <v>0.9988469738563005</v>
       </c>
       <c r="L24">
-        <v>0.9807410328884519</v>
+        <v>0.980791827566989</v>
       </c>
       <c r="M24">
-        <v>0.9640029100807407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9640559119527821</v>
+      </c>
+      <c r="N24">
+        <v>0.9898524458790565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9742488108402685</v>
+        <v>0.9742847635153664</v>
       </c>
       <c r="D25">
-        <v>0.9976011829241228</v>
+        <v>0.99763055584614</v>
       </c>
       <c r="E25">
-        <v>0.9830035575742015</v>
+        <v>0.9830394019801998</v>
       </c>
       <c r="F25">
-        <v>0.9692568424243351</v>
+        <v>0.9692940254290302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034307452219039</v>
+        <v>1.034323885237166</v>
       </c>
       <c r="J25">
-        <v>0.9996750077923766</v>
+        <v>0.999709659039854</v>
       </c>
       <c r="K25">
-        <v>1.01023685192603</v>
+        <v>1.010265766080452</v>
       </c>
       <c r="L25">
-        <v>0.995871578972001</v>
+        <v>0.995906841985353</v>
       </c>
       <c r="M25">
-        <v>0.9823519223956695</v>
+        <v>0.9823884800364922</v>
+      </c>
+      <c r="N25">
+        <v>0.9996970710183312</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.019764923191648</v>
+      </c>
+      <c r="D2">
+        <v>1.037397585886025</v>
+      </c>
+      <c r="E2">
+        <v>1.037974844526056</v>
+      </c>
+      <c r="F2">
+        <v>1.045776075510614</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.052433133080206</v>
+      </c>
+      <c r="J2">
+        <v>1.041370122315039</v>
+      </c>
+      <c r="K2">
+        <v>1.048359385210056</v>
+      </c>
+      <c r="L2">
+        <v>1.048929314984193</v>
+      </c>
+      <c r="M2">
+        <v>1.056632490504719</v>
+      </c>
+      <c r="N2">
+        <v>1.017533886026042</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.02346949504984</v>
+      </c>
+      <c r="D3">
+        <v>1.040121501507612</v>
+      </c>
+      <c r="E3">
+        <v>1.041207624004487</v>
+      </c>
+      <c r="F3">
+        <v>1.049020859798294</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.053445571783564</v>
+      </c>
+      <c r="J3">
+        <v>1.043340181441567</v>
+      </c>
+      <c r="K3">
+        <v>1.050265521018706</v>
+      </c>
+      <c r="L3">
+        <v>1.0513390571681</v>
+      </c>
+      <c r="M3">
+        <v>1.059062697963847</v>
+      </c>
+      <c r="N3">
+        <v>1.018198671417254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.025825994403454</v>
+      </c>
+      <c r="D4">
+        <v>1.041857372421052</v>
+      </c>
+      <c r="E4">
+        <v>1.043269201855652</v>
+      </c>
+      <c r="F4">
+        <v>1.051089908666318</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.05408219732224</v>
+      </c>
+      <c r="J4">
+        <v>1.044591370838567</v>
+      </c>
+      <c r="K4">
+        <v>1.051475557988837</v>
+      </c>
+      <c r="L4">
+        <v>1.052872014036605</v>
+      </c>
+      <c r="M4">
+        <v>1.060608477497289</v>
+      </c>
+      <c r="N4">
+        <v>1.01862075175452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.026807225693325</v>
+      </c>
+      <c r="D5">
+        <v>1.04258090291191</v>
+      </c>
+      <c r="E5">
+        <v>1.044128846417127</v>
+      </c>
+      <c r="F5">
+        <v>1.051952621525472</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.05434548272017</v>
+      </c>
+      <c r="J5">
+        <v>1.045111859756931</v>
+      </c>
+      <c r="K5">
+        <v>1.051978788653169</v>
+      </c>
+      <c r="L5">
+        <v>1.053510325499045</v>
+      </c>
+      <c r="M5">
+        <v>1.061252078531339</v>
+      </c>
+      <c r="N5">
+        <v>1.018796302732854</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.026971433061741</v>
+      </c>
+      <c r="D6">
+        <v>1.042702026062525</v>
+      </c>
+      <c r="E6">
+        <v>1.044272777162468</v>
+      </c>
+      <c r="F6">
+        <v>1.052097063158697</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.054389436407191</v>
+      </c>
+      <c r="J6">
+        <v>1.045198932698938</v>
+      </c>
+      <c r="K6">
+        <v>1.05206296610521</v>
+      </c>
+      <c r="L6">
+        <v>1.053617144920984</v>
+      </c>
+      <c r="M6">
+        <v>1.061359780152112</v>
+      </c>
+      <c r="N6">
+        <v>1.018825668804776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.025839142396733</v>
+      </c>
+      <c r="D7">
+        <v>1.041867064542202</v>
+      </c>
+      <c r="E7">
+        <v>1.043280715883253</v>
+      </c>
+      <c r="F7">
+        <v>1.051101463979423</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.054085732357722</v>
+      </c>
+      <c r="J7">
+        <v>1.044598347120321</v>
+      </c>
+      <c r="K7">
+        <v>1.051482303509486</v>
+      </c>
+      <c r="L7">
+        <v>1.052880567124617</v>
+      </c>
+      <c r="M7">
+        <v>1.060617101662695</v>
+      </c>
+      <c r="N7">
+        <v>1.018623104852183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.021025480662645</v>
+      </c>
+      <c r="D8">
+        <v>1.038323768607253</v>
+      </c>
+      <c r="E8">
+        <v>1.03907376203098</v>
+      </c>
+      <c r="F8">
+        <v>1.046879110677908</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.052779165826368</v>
+      </c>
+      <c r="J8">
+        <v>1.042040874438415</v>
+      </c>
+      <c r="K8">
+        <v>1.049008485629555</v>
+      </c>
+      <c r="L8">
+        <v>1.049749240658652</v>
+      </c>
+      <c r="M8">
+        <v>1.057459419053608</v>
+      </c>
+      <c r="N8">
+        <v>1.017760252770344</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.012219050607233</v>
+      </c>
+      <c r="D9">
+        <v>1.031868231027929</v>
+      </c>
+      <c r="E9">
+        <v>1.031419640882018</v>
+      </c>
+      <c r="F9">
+        <v>1.039195649050987</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.050331713562992</v>
+      </c>
+      <c r="J9">
+        <v>1.037347580483494</v>
+      </c>
+      <c r="K9">
+        <v>1.044464593848693</v>
+      </c>
+      <c r="L9">
+        <v>1.044022724555445</v>
+      </c>
+      <c r="M9">
+        <v>1.051683274463411</v>
+      </c>
+      <c r="N9">
+        <v>1.016175901616398</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.006110903891999</v>
+      </c>
+      <c r="D10">
+        <v>1.027411298694889</v>
+      </c>
+      <c r="E10">
+        <v>1.026141360816118</v>
+      </c>
+      <c r="F10">
+        <v>1.033896430565129</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.048597372412363</v>
+      </c>
+      <c r="J10">
+        <v>1.034084148833428</v>
+      </c>
+      <c r="K10">
+        <v>1.041302664048866</v>
+      </c>
+      <c r="L10">
+        <v>1.040054138590909</v>
+      </c>
+      <c r="M10">
+        <v>1.047679505949373</v>
+      </c>
+      <c r="N10">
+        <v>1.015073762604009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.0034051877451</v>
+      </c>
+      <c r="D11">
+        <v>1.025442495394162</v>
+      </c>
+      <c r="E11">
+        <v>1.023810979645261</v>
+      </c>
+      <c r="F11">
+        <v>1.031556681624232</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.047820804470009</v>
+      </c>
+      <c r="J11">
+        <v>1.032636989864092</v>
+      </c>
+      <c r="K11">
+        <v>1.039900041065019</v>
+      </c>
+      <c r="L11">
+        <v>1.038297404840636</v>
+      </c>
+      <c r="M11">
+        <v>1.045907051852151</v>
+      </c>
+      <c r="N11">
+        <v>1.014584938765852</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.002390610229683</v>
+      </c>
+      <c r="D12">
+        <v>1.024705116452137</v>
+      </c>
+      <c r="E12">
+        <v>1.022938346400695</v>
+      </c>
+      <c r="F12">
+        <v>1.030680525894749</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.047528398195022</v>
+      </c>
+      <c r="J12">
+        <v>1.032094138610302</v>
+      </c>
+      <c r="K12">
+        <v>1.039373832498582</v>
+      </c>
+      <c r="L12">
+        <v>1.037638894766345</v>
+      </c>
+      <c r="M12">
+        <v>1.045242630602684</v>
+      </c>
+      <c r="N12">
+        <v>1.014401563485774</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.00260867976106</v>
+      </c>
+      <c r="D13">
+        <v>1.024863565592968</v>
+      </c>
+      <c r="E13">
+        <v>1.023125851911484</v>
+      </c>
+      <c r="F13">
+        <v>1.030868788890255</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.047591301112124</v>
+      </c>
+      <c r="J13">
+        <v>1.032210825638985</v>
+      </c>
+      <c r="K13">
+        <v>1.039486944884171</v>
+      </c>
+      <c r="L13">
+        <v>1.037780421810583</v>
+      </c>
+      <c r="M13">
+        <v>1.045385428850645</v>
+      </c>
+      <c r="N13">
+        <v>1.01444098080515</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.00332151981412</v>
+      </c>
+      <c r="D14">
+        <v>1.025381668776225</v>
+      </c>
+      <c r="E14">
+        <v>1.023738992549838</v>
+      </c>
+      <c r="F14">
+        <v>1.031484404219273</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.047796715401972</v>
+      </c>
+      <c r="J14">
+        <v>1.032592227125272</v>
+      </c>
+      <c r="K14">
+        <v>1.039856651902315</v>
+      </c>
+      <c r="L14">
+        <v>1.038243095545799</v>
+      </c>
+      <c r="M14">
+        <v>1.045852255398529</v>
+      </c>
+      <c r="N14">
+        <v>1.014569818092184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.003759445381552</v>
+      </c>
+      <c r="D15">
+        <v>1.025700076809377</v>
+      </c>
+      <c r="E15">
+        <v>1.024115828883634</v>
+      </c>
+      <c r="F15">
+        <v>1.031862759684792</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.047922750537828</v>
+      </c>
+      <c r="J15">
+        <v>1.032826511332719</v>
+      </c>
+      <c r="K15">
+        <v>1.040083744393915</v>
+      </c>
+      <c r="L15">
+        <v>1.038527364635356</v>
+      </c>
+      <c r="M15">
+        <v>1.046139073675093</v>
+      </c>
+      <c r="N15">
+        <v>1.014648957962817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.006289156671351</v>
+      </c>
+      <c r="D16">
+        <v>1.02754112226117</v>
+      </c>
+      <c r="E16">
+        <v>1.026295051365729</v>
+      </c>
+      <c r="F16">
+        <v>1.034050736674111</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.048648362307848</v>
+      </c>
+      <c r="J16">
+        <v>1.034179457906339</v>
+      </c>
+      <c r="K16">
+        <v>1.041395030760982</v>
+      </c>
+      <c r="L16">
+        <v>1.040169901111432</v>
+      </c>
+      <c r="M16">
+        <v>1.047796301626794</v>
+      </c>
+      <c r="N16">
+        <v>1.01510595473294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.007859402777648</v>
+      </c>
+      <c r="D17">
+        <v>1.028685382011796</v>
+      </c>
+      <c r="E17">
+        <v>1.027649813689306</v>
+      </c>
+      <c r="F17">
+        <v>1.035410911426869</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.049096593084868</v>
+      </c>
+      <c r="J17">
+        <v>1.035018870451415</v>
+      </c>
+      <c r="K17">
+        <v>1.042208475932875</v>
+      </c>
+      <c r="L17">
+        <v>1.041189808768877</v>
+      </c>
+      <c r="M17">
+        <v>1.048825295455288</v>
+      </c>
+      <c r="N17">
+        <v>1.015389470209173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.008769458778855</v>
+      </c>
+      <c r="D18">
+        <v>1.029349070076402</v>
+      </c>
+      <c r="E18">
+        <v>1.028435716324696</v>
+      </c>
+      <c r="F18">
+        <v>1.036199941798279</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.049355577508628</v>
+      </c>
+      <c r="J18">
+        <v>1.03550521174405</v>
+      </c>
+      <c r="K18">
+        <v>1.042679726483586</v>
+      </c>
+      <c r="L18">
+        <v>1.041781023123376</v>
+      </c>
+      <c r="M18">
+        <v>1.049421762641256</v>
+      </c>
+      <c r="N18">
+        <v>1.015553726115316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.009078785610506</v>
+      </c>
+      <c r="D19">
+        <v>1.029574743104561</v>
+      </c>
+      <c r="E19">
+        <v>1.028702966712483</v>
+      </c>
+      <c r="F19">
+        <v>1.036468253633921</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.049443470326961</v>
+      </c>
+      <c r="J19">
+        <v>1.035670491954233</v>
+      </c>
+      <c r="K19">
+        <v>1.042839870212341</v>
+      </c>
+      <c r="L19">
+        <v>1.041981994310147</v>
+      </c>
+      <c r="M19">
+        <v>1.049624516908307</v>
+      </c>
+      <c r="N19">
+        <v>1.015609546061141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.007691537404227</v>
+      </c>
+      <c r="D20">
+        <v>1.028563002168512</v>
+      </c>
+      <c r="E20">
+        <v>1.027504908070481</v>
+      </c>
+      <c r="F20">
+        <v>1.035265428113689</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.049048757496221</v>
+      </c>
+      <c r="J20">
+        <v>1.034929149422161</v>
+      </c>
+      <c r="K20">
+        <v>1.04212153512189</v>
+      </c>
+      <c r="L20">
+        <v>1.041080764615439</v>
+      </c>
+      <c r="M20">
+        <v>1.048715281293412</v>
+      </c>
+      <c r="N20">
+        <v>1.015359167339956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.003111873348837</v>
+      </c>
+      <c r="D21">
+        <v>1.025229269984276</v>
+      </c>
+      <c r="E21">
+        <v>1.023558634247074</v>
+      </c>
+      <c r="F21">
+        <v>1.03130331834523</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.047736336088192</v>
+      </c>
+      <c r="J21">
+        <v>1.032480062132646</v>
+      </c>
+      <c r="K21">
+        <v>1.039747927776241</v>
+      </c>
+      <c r="L21">
+        <v>1.038107016634463</v>
+      </c>
+      <c r="M21">
+        <v>1.045714955563878</v>
+      </c>
+      <c r="N21">
+        <v>1.014531929054017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.000176959160053</v>
+      </c>
+      <c r="D22">
+        <v>1.023097933795818</v>
+      </c>
+      <c r="E22">
+        <v>1.021036652253028</v>
+      </c>
+      <c r="F22">
+        <v>1.028771132920061</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.046888227009339</v>
+      </c>
+      <c r="J22">
+        <v>1.030909387135734</v>
+      </c>
+      <c r="K22">
+        <v>1.038225295374499</v>
+      </c>
+      <c r="L22">
+        <v>1.036202579159533</v>
+      </c>
+      <c r="M22">
+        <v>1.043793392019675</v>
+      </c>
+      <c r="N22">
+        <v>1.014001338466137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.001738216839745</v>
+      </c>
+      <c r="D23">
+        <v>1.024231220098279</v>
+      </c>
+      <c r="E23">
+        <v>1.02237757017222</v>
+      </c>
+      <c r="F23">
+        <v>1.030117482407731</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.047340038262093</v>
+      </c>
+      <c r="J23">
+        <v>1.031745021799108</v>
+      </c>
+      <c r="K23">
+        <v>1.039035402012388</v>
+      </c>
+      <c r="L23">
+        <v>1.037215527268557</v>
+      </c>
+      <c r="M23">
+        <v>1.044815457978957</v>
+      </c>
+      <c r="N23">
+        <v>1.014283629227535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.007767406564866</v>
+      </c>
+      <c r="D24">
+        <v>1.028618311891385</v>
+      </c>
+      <c r="E24">
+        <v>1.027570397972952</v>
+      </c>
+      <c r="F24">
+        <v>1.035331179141929</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.049070379937068</v>
+      </c>
+      <c r="J24">
+        <v>1.034969700596797</v>
+      </c>
+      <c r="K24">
+        <v>1.042160829864674</v>
+      </c>
+      <c r="L24">
+        <v>1.041130048332698</v>
+      </c>
+      <c r="M24">
+        <v>1.048765003461003</v>
+      </c>
+      <c r="N24">
+        <v>1.01537286333995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.014536058952864</v>
+      </c>
+      <c r="D25">
+        <v>1.033563325553795</v>
+      </c>
+      <c r="E25">
+        <v>1.033428320852133</v>
+      </c>
+      <c r="F25">
+        <v>1.041212165270536</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.050982148461389</v>
+      </c>
+      <c r="J25">
+        <v>1.038583937646105</v>
+      </c>
+      <c r="K25">
+        <v>1.045662035064989</v>
+      </c>
+      <c r="L25">
+        <v>1.045528957689861</v>
+      </c>
+      <c r="M25">
+        <v>1.053202710916544</v>
+      </c>
+      <c r="N25">
+        <v>1.016593360393428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019764923191648</v>
+        <v>1.043840238251543</v>
       </c>
       <c r="D2">
-        <v>1.037397585886025</v>
+        <v>1.050778332049941</v>
       </c>
       <c r="E2">
-        <v>1.037974844526056</v>
+        <v>1.057197741469932</v>
       </c>
       <c r="F2">
-        <v>1.045776075510614</v>
+        <v>1.064100322796586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052433133080206</v>
+        <v>1.044201513436368</v>
       </c>
       <c r="J2">
-        <v>1.041370122315039</v>
+        <v>1.048908528474003</v>
       </c>
       <c r="K2">
-        <v>1.048359385210056</v>
+        <v>1.053531664543123</v>
       </c>
       <c r="L2">
-        <v>1.048929314984193</v>
+        <v>1.059933369664783</v>
       </c>
       <c r="M2">
-        <v>1.056632490504719</v>
+        <v>1.066817172114993</v>
       </c>
       <c r="N2">
-        <v>1.017533886026042</v>
+        <v>1.020183794367798</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02346949504984</v>
+        <v>1.044640151352149</v>
       </c>
       <c r="D3">
-        <v>1.040121501507612</v>
+        <v>1.051392601602742</v>
       </c>
       <c r="E3">
-        <v>1.041207624004487</v>
+        <v>1.057948172177489</v>
       </c>
       <c r="F3">
-        <v>1.049020859798294</v>
+        <v>1.064852070172603</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053445571783564</v>
+        <v>1.044379729686881</v>
       </c>
       <c r="J3">
-        <v>1.043340181441567</v>
+        <v>1.049356194338291</v>
       </c>
       <c r="K3">
-        <v>1.050265521018706</v>
+        <v>1.053958959262137</v>
       </c>
       <c r="L3">
-        <v>1.0513390571681</v>
+        <v>1.0604977503138</v>
       </c>
       <c r="M3">
-        <v>1.059062697963847</v>
+        <v>1.06738421785964</v>
       </c>
       <c r="N3">
-        <v>1.018198671417254</v>
+        <v>1.020333860296197</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025825994403454</v>
+        <v>1.045158566516036</v>
       </c>
       <c r="D4">
-        <v>1.041857372421052</v>
+        <v>1.051790790611446</v>
       </c>
       <c r="E4">
-        <v>1.043269201855652</v>
+        <v>1.058434879781575</v>
       </c>
       <c r="F4">
-        <v>1.051089908666318</v>
+        <v>1.065339595425865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05408219732224</v>
+        <v>1.044494298542021</v>
       </c>
       <c r="J4">
-        <v>1.044591370838567</v>
+        <v>1.049645985069257</v>
       </c>
       <c r="K4">
-        <v>1.051475557988837</v>
+        <v>1.05423546714439</v>
       </c>
       <c r="L4">
-        <v>1.052872014036605</v>
+        <v>1.060863402253985</v>
       </c>
       <c r="M4">
-        <v>1.060608477497289</v>
+        <v>1.067751559487011</v>
       </c>
       <c r="N4">
-        <v>1.01862075175452</v>
+        <v>1.02043096728422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026807225693325</v>
+        <v>1.045376702142348</v>
       </c>
       <c r="D5">
-        <v>1.04258090291191</v>
+        <v>1.0519583586354</v>
       </c>
       <c r="E5">
-        <v>1.044128846417127</v>
+        <v>1.058639759775004</v>
       </c>
       <c r="F5">
-        <v>1.051952621525472</v>
+        <v>1.065544810900784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05434548272017</v>
+        <v>1.044542283199973</v>
       </c>
       <c r="J5">
-        <v>1.045111859756931</v>
+        <v>1.049767840671374</v>
       </c>
       <c r="K5">
-        <v>1.051978788653169</v>
+        <v>1.054351714349374</v>
       </c>
       <c r="L5">
-        <v>1.053510325499045</v>
+        <v>1.061017230747173</v>
       </c>
       <c r="M5">
-        <v>1.061252078531339</v>
+        <v>1.06790608994837</v>
       </c>
       <c r="N5">
-        <v>1.018796302732854</v>
+        <v>1.020471791583855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026971433061741</v>
+        <v>1.0454133393881</v>
       </c>
       <c r="D6">
-        <v>1.042702026062525</v>
+        <v>1.051986503919262</v>
       </c>
       <c r="E6">
-        <v>1.044272777162468</v>
+        <v>1.058674175688529</v>
       </c>
       <c r="F6">
-        <v>1.052097063158697</v>
+        <v>1.065579282657662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054389436407191</v>
+        <v>1.044550329451982</v>
       </c>
       <c r="J6">
-        <v>1.045198932698938</v>
+        <v>1.049788302340137</v>
       </c>
       <c r="K6">
-        <v>1.05206296610521</v>
+        <v>1.054371232918679</v>
       </c>
       <c r="L6">
-        <v>1.053617144920984</v>
+        <v>1.061043065536605</v>
       </c>
       <c r="M6">
-        <v>1.061359780152112</v>
+        <v>1.067932042108896</v>
       </c>
       <c r="N6">
-        <v>1.018825668804776</v>
+        <v>1.020478646179253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025839142396733</v>
+        <v>1.045161480495485</v>
       </c>
       <c r="D7">
-        <v>1.041867064542202</v>
+        <v>1.051793029000531</v>
       </c>
       <c r="E7">
-        <v>1.043280715883253</v>
+        <v>1.058437616347211</v>
       </c>
       <c r="F7">
-        <v>1.051101463979423</v>
+        <v>1.065342336506723</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054085732357722</v>
+        <v>1.04449494042397</v>
       </c>
       <c r="J7">
-        <v>1.044598347120321</v>
+        <v>1.049647613203146</v>
       </c>
       <c r="K7">
-        <v>1.051482303509486</v>
+        <v>1.054237020434066</v>
       </c>
       <c r="L7">
-        <v>1.052880567124617</v>
+        <v>1.060865457293953</v>
       </c>
       <c r="M7">
-        <v>1.060617101662695</v>
+        <v>1.067753623939679</v>
       </c>
       <c r="N7">
-        <v>1.018623104852183</v>
+        <v>1.020431512779095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021025480662645</v>
+        <v>1.044110402125336</v>
       </c>
       <c r="D8">
-        <v>1.038323768607253</v>
+        <v>1.05098577800255</v>
       </c>
       <c r="E8">
-        <v>1.03907376203098</v>
+        <v>1.057451118056409</v>
       </c>
       <c r="F8">
-        <v>1.046879110677908</v>
+        <v>1.06435415143951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052779165826368</v>
+        <v>1.044261897062143</v>
       </c>
       <c r="J8">
-        <v>1.042040874438415</v>
+        <v>1.049059793366182</v>
       </c>
       <c r="K8">
-        <v>1.049008485629555</v>
+        <v>1.05367606588407</v>
       </c>
       <c r="L8">
-        <v>1.049749240658652</v>
+        <v>1.060124008502753</v>
       </c>
       <c r="M8">
-        <v>1.057459419053608</v>
+        <v>1.067008718815739</v>
       </c>
       <c r="N8">
-        <v>1.017760252770344</v>
+        <v>1.020234508656313</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012219050607233</v>
+        <v>1.042264616724049</v>
       </c>
       <c r="D9">
-        <v>1.031868231027929</v>
+        <v>1.049568864305601</v>
       </c>
       <c r="E9">
-        <v>1.031419640882018</v>
+        <v>1.055721520291217</v>
       </c>
       <c r="F9">
-        <v>1.039195649050987</v>
+        <v>1.062621320300943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050331713562992</v>
+        <v>1.043845543310576</v>
       </c>
       <c r="J9">
-        <v>1.037347580483494</v>
+        <v>1.048024967561291</v>
       </c>
       <c r="K9">
-        <v>1.044464593848693</v>
+        <v>1.052687804888121</v>
       </c>
       <c r="L9">
-        <v>1.044022724555445</v>
+        <v>1.05882107815834</v>
       </c>
       <c r="M9">
-        <v>1.051683274463411</v>
+        <v>1.065699433297098</v>
       </c>
       <c r="N9">
-        <v>1.016175901616398</v>
+        <v>1.019887417558026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006110903891999</v>
+        <v>1.041038476504109</v>
       </c>
       <c r="D10">
-        <v>1.027411298694889</v>
+        <v>1.048628113067029</v>
       </c>
       <c r="E10">
-        <v>1.026141360816118</v>
+        <v>1.054574456557743</v>
       </c>
       <c r="F10">
-        <v>1.033896430565129</v>
+        <v>1.061471927936815</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048597372412363</v>
+        <v>1.04356418768241</v>
       </c>
       <c r="J10">
-        <v>1.034084148833428</v>
+        <v>1.047335830751951</v>
       </c>
       <c r="K10">
-        <v>1.041302664048866</v>
+        <v>1.052029191425445</v>
       </c>
       <c r="L10">
-        <v>1.040054138590909</v>
+        <v>1.057954977545814</v>
       </c>
       <c r="M10">
-        <v>1.047679505949373</v>
+        <v>1.064828920550193</v>
       </c>
       <c r="N10">
-        <v>1.015073762604009</v>
+        <v>1.019656091023506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.0034051877451</v>
+        <v>1.040508608213436</v>
       </c>
       <c r="D11">
-        <v>1.025442495394162</v>
+        <v>1.048221697023877</v>
       </c>
       <c r="E11">
-        <v>1.023810979645261</v>
+        <v>1.05407921557349</v>
       </c>
       <c r="F11">
-        <v>1.031556681624232</v>
+        <v>1.060975638112973</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047820804470009</v>
+        <v>1.043441469440606</v>
       </c>
       <c r="J11">
-        <v>1.032636989864092</v>
+        <v>1.047037621667622</v>
       </c>
       <c r="K11">
-        <v>1.039900041065019</v>
+        <v>1.051744076283419</v>
       </c>
       <c r="L11">
-        <v>1.038297404840636</v>
+        <v>1.057580565480866</v>
       </c>
       <c r="M11">
-        <v>1.045907051852151</v>
+        <v>1.064452556946544</v>
       </c>
       <c r="N11">
-        <v>1.014584938765852</v>
+        <v>1.019555946525114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002390610229683</v>
+        <v>1.040311952537484</v>
       </c>
       <c r="D12">
-        <v>1.024705116452137</v>
+        <v>1.048070878557623</v>
       </c>
       <c r="E12">
-        <v>1.022938346400695</v>
+        <v>1.053895480333933</v>
       </c>
       <c r="F12">
-        <v>1.030680525894749</v>
+        <v>1.060791507241976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047528398195022</v>
+        <v>1.043395753595333</v>
       </c>
       <c r="J12">
-        <v>1.032094138610302</v>
+        <v>1.046926883761787</v>
       </c>
       <c r="K12">
-        <v>1.039373832498582</v>
+        <v>1.051638183615591</v>
       </c>
       <c r="L12">
-        <v>1.037638894766345</v>
+        <v>1.057441586342976</v>
       </c>
       <c r="M12">
-        <v>1.045242630602684</v>
+        <v>1.064312846797376</v>
       </c>
       <c r="N12">
-        <v>1.014401563485774</v>
+        <v>1.019518752138413</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.00260867976106</v>
+        <v>1.04035412853032</v>
       </c>
       <c r="D13">
-        <v>1.024863565592968</v>
+        <v>1.04810322314782</v>
       </c>
       <c r="E13">
-        <v>1.023125851911484</v>
+        <v>1.053934882207019</v>
       </c>
       <c r="F13">
-        <v>1.030868788890255</v>
+        <v>1.06083099425224</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047591301112124</v>
+        <v>1.043405565797203</v>
       </c>
       <c r="J13">
-        <v>1.032210825638985</v>
+        <v>1.046950636027841</v>
       </c>
       <c r="K13">
-        <v>1.039486944884171</v>
+        <v>1.051660897395487</v>
       </c>
       <c r="L13">
-        <v>1.037780421810583</v>
+        <v>1.05747139355027</v>
       </c>
       <c r="M13">
-        <v>1.045385428850645</v>
+        <v>1.064342811085421</v>
       </c>
       <c r="N13">
-        <v>1.01444098080515</v>
+        <v>1.019526730283062</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00332151981412</v>
+        <v>1.040492349298172</v>
       </c>
       <c r="D14">
-        <v>1.025381668776225</v>
+        <v>1.048209227402881</v>
       </c>
       <c r="E14">
-        <v>1.023738992549838</v>
+        <v>1.054064023474701</v>
       </c>
       <c r="F14">
-        <v>1.031484404219273</v>
+        <v>1.060960413434249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047796715401972</v>
+        <v>1.043437693259581</v>
       </c>
       <c r="J14">
-        <v>1.032592227125272</v>
+        <v>1.047028467412943</v>
       </c>
       <c r="K14">
-        <v>1.039856651902315</v>
+        <v>1.051735322913557</v>
       </c>
       <c r="L14">
-        <v>1.038243095545799</v>
+        <v>1.057569075490772</v>
       </c>
       <c r="M14">
-        <v>1.045852255398529</v>
+        <v>1.064441006655475</v>
       </c>
       <c r="N14">
-        <v>1.014569818092184</v>
+        <v>1.019552871946221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003759445381552</v>
+        <v>1.04057753306807</v>
       </c>
       <c r="D15">
-        <v>1.025700076809377</v>
+        <v>1.04827455907195</v>
       </c>
       <c r="E15">
-        <v>1.024115828883634</v>
+        <v>1.054143620798446</v>
       </c>
       <c r="F15">
-        <v>1.031862759684792</v>
+        <v>1.06104018119035</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047922750537828</v>
+        <v>1.043457470472559</v>
       </c>
       <c r="J15">
-        <v>1.032826511332719</v>
+        <v>1.047076425945896</v>
       </c>
       <c r="K15">
-        <v>1.040083744393915</v>
+        <v>1.051781180537308</v>
       </c>
       <c r="L15">
-        <v>1.038527364635356</v>
+        <v>1.057629273089322</v>
       </c>
       <c r="M15">
-        <v>1.046139073675093</v>
+        <v>1.064501519908148</v>
       </c>
       <c r="N15">
-        <v>1.014648957962817</v>
+        <v>1.019568979198702</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006289156671351</v>
+        <v>1.041073664587257</v>
       </c>
       <c r="D16">
-        <v>1.02754112226117</v>
+        <v>1.048655105441575</v>
       </c>
       <c r="E16">
-        <v>1.026295051365729</v>
+        <v>1.054607354706169</v>
       </c>
       <c r="F16">
-        <v>1.034050736674111</v>
+        <v>1.061504894843087</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048648362307848</v>
+        <v>1.043572313417247</v>
       </c>
       <c r="J16">
-        <v>1.034179457906339</v>
+        <v>1.047355626067315</v>
       </c>
       <c r="K16">
-        <v>1.041395030760982</v>
+        <v>1.052048115152379</v>
       </c>
       <c r="L16">
-        <v>1.040169901111432</v>
+        <v>1.057979839152292</v>
       </c>
       <c r="M16">
-        <v>1.047796301626794</v>
+        <v>1.064853910812738</v>
       </c>
       <c r="N16">
-        <v>1.01510595473294</v>
+        <v>1.019662737779791</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007859402777648</v>
+        <v>1.041385159565942</v>
       </c>
       <c r="D17">
-        <v>1.028685382011796</v>
+        <v>1.048894063989887</v>
       </c>
       <c r="E17">
-        <v>1.027649813689306</v>
+        <v>1.054898631197909</v>
       </c>
       <c r="F17">
-        <v>1.035410911426869</v>
+        <v>1.06179677508314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049096593084868</v>
+        <v>1.043644113806419</v>
       </c>
       <c r="J17">
-        <v>1.035018870451415</v>
+        <v>1.047530813257024</v>
       </c>
       <c r="K17">
-        <v>1.042208475932875</v>
+        <v>1.052215575636006</v>
       </c>
       <c r="L17">
-        <v>1.041189808768877</v>
+        <v>1.058199905924293</v>
       </c>
       <c r="M17">
-        <v>1.048825295455288</v>
+        <v>1.065075111299919</v>
       </c>
       <c r="N17">
-        <v>1.015389470209173</v>
+        <v>1.019721556162823</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008769458778855</v>
+        <v>1.041566951316141</v>
       </c>
       <c r="D18">
-        <v>1.029349070076402</v>
+        <v>1.049033534591311</v>
       </c>
       <c r="E18">
-        <v>1.028435716324696</v>
+        <v>1.055068667139839</v>
       </c>
       <c r="F18">
-        <v>1.036199941798279</v>
+        <v>1.061967159268086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049355577508628</v>
+        <v>1.043685907891172</v>
       </c>
       <c r="J18">
-        <v>1.03550521174405</v>
+        <v>1.047633015381746</v>
       </c>
       <c r="K18">
-        <v>1.042679726483586</v>
+        <v>1.052313259047174</v>
       </c>
       <c r="L18">
-        <v>1.041781023123376</v>
+        <v>1.058328326391616</v>
       </c>
       <c r="M18">
-        <v>1.049421762641256</v>
+        <v>1.065204189079848</v>
       </c>
       <c r="N18">
-        <v>1.015553726115316</v>
+        <v>1.01975586596208</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009078785610506</v>
+        <v>1.041628954845992</v>
       </c>
       <c r="D19">
-        <v>1.029574743104561</v>
+        <v>1.049081105687486</v>
       </c>
       <c r="E19">
-        <v>1.028702966712483</v>
+        <v>1.055126668561639</v>
       </c>
       <c r="F19">
-        <v>1.036468253633921</v>
+        <v>1.062025278766703</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049443470326961</v>
+        <v>1.043700144005216</v>
       </c>
       <c r="J19">
-        <v>1.035670491954233</v>
+        <v>1.047667866742897</v>
       </c>
       <c r="K19">
-        <v>1.042839870212341</v>
+        <v>1.052346567631942</v>
       </c>
       <c r="L19">
-        <v>1.041981994310147</v>
+        <v>1.05837212444775</v>
       </c>
       <c r="M19">
-        <v>1.049624516908307</v>
+        <v>1.065248210588807</v>
       </c>
       <c r="N19">
-        <v>1.015609546061141</v>
+        <v>1.019767565045706</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007691537404227</v>
+        <v>1.041351728538235</v>
       </c>
       <c r="D20">
-        <v>1.028563002168512</v>
+        <v>1.048868416662814</v>
       </c>
       <c r="E20">
-        <v>1.027504908070481</v>
+        <v>1.054867365563511</v>
       </c>
       <c r="F20">
-        <v>1.035265428113689</v>
+        <v>1.061765445076709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049048757496221</v>
+        <v>1.043636419180118</v>
       </c>
       <c r="J20">
-        <v>1.034929149422161</v>
+        <v>1.047512015415961</v>
       </c>
       <c r="K20">
-        <v>1.04212153512189</v>
+        <v>1.052197608023591</v>
       </c>
       <c r="L20">
-        <v>1.041080764615439</v>
+        <v>1.058176288702049</v>
       </c>
       <c r="M20">
-        <v>1.048715281293412</v>
+        <v>1.065051372850482</v>
       </c>
       <c r="N20">
-        <v>1.015359167339956</v>
+        <v>1.019715245293083</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003111873348837</v>
+        <v>1.040451642266896</v>
       </c>
       <c r="D21">
-        <v>1.025229269984276</v>
+        <v>1.048178007840733</v>
       </c>
       <c r="E21">
-        <v>1.023558634247074</v>
+        <v>1.05402598851845</v>
       </c>
       <c r="F21">
-        <v>1.03130331834523</v>
+        <v>1.060922296805701</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047736336088192</v>
+        <v>1.043428236182922</v>
       </c>
       <c r="J21">
-        <v>1.032480062132646</v>
+        <v>1.047005547164105</v>
       </c>
       <c r="K21">
-        <v>1.039747927776241</v>
+        <v>1.051713406116378</v>
       </c>
       <c r="L21">
-        <v>1.038107016634463</v>
+        <v>1.057540307980292</v>
       </c>
       <c r="M21">
-        <v>1.045714955563878</v>
+        <v>1.064412088062554</v>
       </c>
       <c r="N21">
-        <v>1.014531929054017</v>
+        <v>1.019545173770589</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000176959160053</v>
+        <v>1.039886654774484</v>
       </c>
       <c r="D22">
-        <v>1.023097933795818</v>
+        <v>1.047744746140969</v>
       </c>
       <c r="E22">
-        <v>1.021036652253028</v>
+        <v>1.053498251333761</v>
       </c>
       <c r="F22">
-        <v>1.028771132920061</v>
+        <v>1.060393411023491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046888227009339</v>
+        <v>1.043296575173306</v>
       </c>
       <c r="J22">
-        <v>1.030909387135734</v>
+        <v>1.046687286054953</v>
       </c>
       <c r="K22">
-        <v>1.038225295374499</v>
+        <v>1.051409038093473</v>
       </c>
       <c r="L22">
-        <v>1.036202579159533</v>
+        <v>1.057140987381434</v>
       </c>
       <c r="M22">
-        <v>1.043793392019675</v>
+        <v>1.064010654663164</v>
       </c>
       <c r="N22">
-        <v>1.014001338466137</v>
+        <v>1.019438264944181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001738216839745</v>
+        <v>1.04018607628836</v>
       </c>
       <c r="D23">
-        <v>1.024231220098279</v>
+        <v>1.047974347426754</v>
       </c>
       <c r="E23">
-        <v>1.02237757017222</v>
+        <v>1.053777893692339</v>
       </c>
       <c r="F23">
-        <v>1.030117482407731</v>
+        <v>1.060673665574583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047340038262093</v>
+        <v>1.043366443706119</v>
       </c>
       <c r="J23">
-        <v>1.031745021799108</v>
+        <v>1.046855985171739</v>
       </c>
       <c r="K23">
-        <v>1.039035402012388</v>
+        <v>1.051570382323346</v>
       </c>
       <c r="L23">
-        <v>1.037215527268557</v>
+        <v>1.05735262247581</v>
       </c>
       <c r="M23">
-        <v>1.044815457978957</v>
+        <v>1.064223413133809</v>
       </c>
       <c r="N23">
-        <v>1.014283629227535</v>
+        <v>1.019494937087046</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007767406564866</v>
+        <v>1.041366834265733</v>
       </c>
       <c r="D24">
-        <v>1.028618311891385</v>
+        <v>1.04888000530775</v>
       </c>
       <c r="E24">
-        <v>1.027570397972952</v>
+        <v>1.05488149272779</v>
       </c>
       <c r="F24">
-        <v>1.035331179141929</v>
+        <v>1.061779601340036</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049070379937068</v>
+        <v>1.043639896315955</v>
       </c>
       <c r="J24">
-        <v>1.034969700596797</v>
+        <v>1.047520509294529</v>
       </c>
       <c r="K24">
-        <v>1.042160829864674</v>
+        <v>1.052205726794208</v>
       </c>
       <c r="L24">
-        <v>1.041130048332698</v>
+        <v>1.058186960125375</v>
       </c>
       <c r="M24">
-        <v>1.048765003461003</v>
+        <v>1.065062099063414</v>
       </c>
       <c r="N24">
-        <v>1.01537286333995</v>
+        <v>1.019718096897263</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014536058952864</v>
+        <v>1.042741032299345</v>
       </c>
       <c r="D25">
-        <v>1.033563325553795</v>
+        <v>1.049934498950134</v>
       </c>
       <c r="E25">
-        <v>1.033428320852133</v>
+        <v>1.056167614219399</v>
       </c>
       <c r="F25">
-        <v>1.041212165270536</v>
+        <v>1.063068280815149</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050982148461389</v>
+        <v>1.043953851569527</v>
       </c>
       <c r="J25">
-        <v>1.038583937646105</v>
+        <v>1.048292369230241</v>
       </c>
       <c r="K25">
-        <v>1.045662035064989</v>
+        <v>1.052943260166687</v>
       </c>
       <c r="L25">
-        <v>1.045528957689861</v>
+        <v>1.059157480182642</v>
       </c>
       <c r="M25">
-        <v>1.053202710916544</v>
+        <v>1.066037509383267</v>
       </c>
       <c r="N25">
-        <v>1.016593360393428</v>
+        <v>1.019977139242566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043840238251543</v>
+        <v>1.019764923191647</v>
       </c>
       <c r="D2">
-        <v>1.050778332049941</v>
+        <v>1.037397585886024</v>
       </c>
       <c r="E2">
-        <v>1.057197741469932</v>
+        <v>1.037974844526056</v>
       </c>
       <c r="F2">
-        <v>1.064100322796586</v>
+        <v>1.045776075510613</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044201513436368</v>
+        <v>1.052433133080205</v>
       </c>
       <c r="J2">
-        <v>1.048908528474003</v>
+        <v>1.041370122315038</v>
       </c>
       <c r="K2">
-        <v>1.053531664543123</v>
+        <v>1.048359385210055</v>
       </c>
       <c r="L2">
-        <v>1.059933369664783</v>
+        <v>1.048929314984193</v>
       </c>
       <c r="M2">
-        <v>1.066817172114993</v>
+        <v>1.056632490504718</v>
       </c>
       <c r="N2">
-        <v>1.020183794367798</v>
+        <v>1.017533886026041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044640151352149</v>
+        <v>1.02346949504984</v>
       </c>
       <c r="D3">
-        <v>1.051392601602742</v>
+        <v>1.040121501507613</v>
       </c>
       <c r="E3">
-        <v>1.057948172177489</v>
+        <v>1.041207624004488</v>
       </c>
       <c r="F3">
-        <v>1.064852070172603</v>
+        <v>1.049020859798295</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044379729686881</v>
+        <v>1.053445571783564</v>
       </c>
       <c r="J3">
-        <v>1.049356194338291</v>
+        <v>1.043340181441568</v>
       </c>
       <c r="K3">
-        <v>1.053958959262137</v>
+        <v>1.050265521018707</v>
       </c>
       <c r="L3">
-        <v>1.0604977503138</v>
+        <v>1.051339057168101</v>
       </c>
       <c r="M3">
-        <v>1.06738421785964</v>
+        <v>1.059062697963848</v>
       </c>
       <c r="N3">
-        <v>1.020333860296197</v>
+        <v>1.018198671417254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045158566516036</v>
+        <v>1.025825994403455</v>
       </c>
       <c r="D4">
-        <v>1.051790790611446</v>
+        <v>1.041857372421053</v>
       </c>
       <c r="E4">
-        <v>1.058434879781575</v>
+        <v>1.043269201855653</v>
       </c>
       <c r="F4">
-        <v>1.065339595425865</v>
+        <v>1.051089908666319</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044494298542021</v>
+        <v>1.054082197322241</v>
       </c>
       <c r="J4">
-        <v>1.049645985069257</v>
+        <v>1.044591370838568</v>
       </c>
       <c r="K4">
-        <v>1.05423546714439</v>
+        <v>1.051475557988838</v>
       </c>
       <c r="L4">
-        <v>1.060863402253985</v>
+        <v>1.052872014036606</v>
       </c>
       <c r="M4">
-        <v>1.067751559487011</v>
+        <v>1.060608477497291</v>
       </c>
       <c r="N4">
-        <v>1.02043096728422</v>
+        <v>1.018620751754521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045376702142348</v>
+        <v>1.026807225693326</v>
       </c>
       <c r="D5">
-        <v>1.0519583586354</v>
+        <v>1.042580902911911</v>
       </c>
       <c r="E5">
-        <v>1.058639759775004</v>
+        <v>1.044128846417128</v>
       </c>
       <c r="F5">
-        <v>1.065544810900784</v>
+        <v>1.051952621525473</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044542283199973</v>
+        <v>1.05434548272017</v>
       </c>
       <c r="J5">
-        <v>1.049767840671374</v>
+        <v>1.045111859756932</v>
       </c>
       <c r="K5">
-        <v>1.054351714349374</v>
+        <v>1.05197878865317</v>
       </c>
       <c r="L5">
-        <v>1.061017230747173</v>
+        <v>1.053510325499046</v>
       </c>
       <c r="M5">
-        <v>1.06790608994837</v>
+        <v>1.06125207853134</v>
       </c>
       <c r="N5">
-        <v>1.020471791583855</v>
+        <v>1.018796302732855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0454133393881</v>
+        <v>1.026971433061741</v>
       </c>
       <c r="D6">
-        <v>1.051986503919262</v>
+        <v>1.042702026062524</v>
       </c>
       <c r="E6">
-        <v>1.058674175688529</v>
+        <v>1.044272777162468</v>
       </c>
       <c r="F6">
-        <v>1.065579282657662</v>
+        <v>1.052097063158696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044550329451982</v>
+        <v>1.054389436407191</v>
       </c>
       <c r="J6">
-        <v>1.049788302340137</v>
+        <v>1.045198932698938</v>
       </c>
       <c r="K6">
-        <v>1.054371232918679</v>
+        <v>1.05206296610521</v>
       </c>
       <c r="L6">
-        <v>1.061043065536605</v>
+        <v>1.053617144920983</v>
       </c>
       <c r="M6">
-        <v>1.067932042108896</v>
+        <v>1.061359780152111</v>
       </c>
       <c r="N6">
-        <v>1.020478646179253</v>
+        <v>1.018825668804776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045161480495485</v>
+        <v>1.025839142396734</v>
       </c>
       <c r="D7">
-        <v>1.051793029000531</v>
+        <v>1.041867064542203</v>
       </c>
       <c r="E7">
-        <v>1.058437616347211</v>
+        <v>1.043280715883254</v>
       </c>
       <c r="F7">
-        <v>1.065342336506723</v>
+        <v>1.051101463979424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04449494042397</v>
+        <v>1.054085732357722</v>
       </c>
       <c r="J7">
-        <v>1.049647613203146</v>
+        <v>1.044598347120322</v>
       </c>
       <c r="K7">
-        <v>1.054237020434066</v>
+        <v>1.051482303509486</v>
       </c>
       <c r="L7">
-        <v>1.060865457293953</v>
+        <v>1.052880567124618</v>
       </c>
       <c r="M7">
-        <v>1.067753623939679</v>
+        <v>1.060617101662696</v>
       </c>
       <c r="N7">
-        <v>1.020431512779095</v>
+        <v>1.018623104852183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044110402125336</v>
+        <v>1.021025480662645</v>
       </c>
       <c r="D8">
-        <v>1.05098577800255</v>
+        <v>1.038323768607253</v>
       </c>
       <c r="E8">
-        <v>1.057451118056409</v>
+        <v>1.03907376203098</v>
       </c>
       <c r="F8">
-        <v>1.06435415143951</v>
+        <v>1.046879110677909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044261897062143</v>
+        <v>1.052779165826368</v>
       </c>
       <c r="J8">
-        <v>1.049059793366182</v>
+        <v>1.042040874438415</v>
       </c>
       <c r="K8">
-        <v>1.05367606588407</v>
+        <v>1.049008485629555</v>
       </c>
       <c r="L8">
-        <v>1.060124008502753</v>
+        <v>1.049749240658653</v>
       </c>
       <c r="M8">
-        <v>1.067008718815739</v>
+        <v>1.057459419053608</v>
       </c>
       <c r="N8">
-        <v>1.020234508656313</v>
+        <v>1.017760252770344</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042264616724049</v>
+        <v>1.012219050607234</v>
       </c>
       <c r="D9">
-        <v>1.049568864305601</v>
+        <v>1.03186823102793</v>
       </c>
       <c r="E9">
-        <v>1.055721520291217</v>
+        <v>1.031419640882019</v>
       </c>
       <c r="F9">
-        <v>1.062621320300943</v>
+        <v>1.039195649050987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043845543310576</v>
+        <v>1.050331713562993</v>
       </c>
       <c r="J9">
-        <v>1.048024967561291</v>
+        <v>1.037347580483494</v>
       </c>
       <c r="K9">
-        <v>1.052687804888121</v>
+        <v>1.044464593848694</v>
       </c>
       <c r="L9">
-        <v>1.05882107815834</v>
+        <v>1.044022724555446</v>
       </c>
       <c r="M9">
-        <v>1.065699433297098</v>
+        <v>1.051683274463412</v>
       </c>
       <c r="N9">
-        <v>1.019887417558026</v>
+        <v>1.016175901616399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041038476504109</v>
+        <v>1.006110903892</v>
       </c>
       <c r="D10">
-        <v>1.048628113067029</v>
+        <v>1.02741129869489</v>
       </c>
       <c r="E10">
-        <v>1.054574456557743</v>
+        <v>1.02614136081612</v>
       </c>
       <c r="F10">
-        <v>1.061471927936815</v>
+        <v>1.03389643056513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04356418768241</v>
+        <v>1.048597372412364</v>
       </c>
       <c r="J10">
-        <v>1.047335830751951</v>
+        <v>1.034084148833429</v>
       </c>
       <c r="K10">
-        <v>1.052029191425445</v>
+        <v>1.041302664048867</v>
       </c>
       <c r="L10">
-        <v>1.057954977545814</v>
+        <v>1.04005413859091</v>
       </c>
       <c r="M10">
-        <v>1.064828920550193</v>
+        <v>1.047679505949375</v>
       </c>
       <c r="N10">
-        <v>1.019656091023506</v>
+        <v>1.015073762604009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040508608213436</v>
+        <v>1.0034051877451</v>
       </c>
       <c r="D11">
-        <v>1.048221697023877</v>
+        <v>1.025442495394163</v>
       </c>
       <c r="E11">
-        <v>1.05407921557349</v>
+        <v>1.023810979645261</v>
       </c>
       <c r="F11">
-        <v>1.060975638112973</v>
+        <v>1.031556681624233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043441469440606</v>
+        <v>1.047820804470009</v>
       </c>
       <c r="J11">
-        <v>1.047037621667622</v>
+        <v>1.032636989864093</v>
       </c>
       <c r="K11">
-        <v>1.051744076283419</v>
+        <v>1.03990004106502</v>
       </c>
       <c r="L11">
-        <v>1.057580565480866</v>
+        <v>1.038297404840636</v>
       </c>
       <c r="M11">
-        <v>1.064452556946544</v>
+        <v>1.045907051852152</v>
       </c>
       <c r="N11">
-        <v>1.019555946525114</v>
+        <v>1.014584938765852</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040311952537484</v>
+        <v>1.002390610229684</v>
       </c>
       <c r="D12">
-        <v>1.048070878557623</v>
+        <v>1.024705116452137</v>
       </c>
       <c r="E12">
-        <v>1.053895480333933</v>
+        <v>1.022938346400696</v>
       </c>
       <c r="F12">
-        <v>1.060791507241976</v>
+        <v>1.030680525894749</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043395753595333</v>
+        <v>1.047528398195023</v>
       </c>
       <c r="J12">
-        <v>1.046926883761787</v>
+        <v>1.032094138610303</v>
       </c>
       <c r="K12">
-        <v>1.051638183615591</v>
+        <v>1.039373832498583</v>
       </c>
       <c r="L12">
-        <v>1.057441586342976</v>
+        <v>1.037638894766345</v>
       </c>
       <c r="M12">
-        <v>1.064312846797376</v>
+        <v>1.045242630602685</v>
       </c>
       <c r="N12">
-        <v>1.019518752138413</v>
+        <v>1.014401563485774</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04035412853032</v>
+        <v>1.002608679761061</v>
       </c>
       <c r="D13">
-        <v>1.04810322314782</v>
+        <v>1.02486356559297</v>
       </c>
       <c r="E13">
-        <v>1.053934882207019</v>
+        <v>1.023125851911486</v>
       </c>
       <c r="F13">
-        <v>1.06083099425224</v>
+        <v>1.030868788890257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043405565797203</v>
+        <v>1.047591301112124</v>
       </c>
       <c r="J13">
-        <v>1.046950636027841</v>
+        <v>1.032210825638987</v>
       </c>
       <c r="K13">
-        <v>1.051660897395487</v>
+        <v>1.039486944884172</v>
       </c>
       <c r="L13">
-        <v>1.05747139355027</v>
+        <v>1.037780421810584</v>
       </c>
       <c r="M13">
-        <v>1.064342811085421</v>
+        <v>1.045385428850646</v>
       </c>
       <c r="N13">
-        <v>1.019526730283062</v>
+        <v>1.01444098080515</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040492349298172</v>
+        <v>1.003321519814121</v>
       </c>
       <c r="D14">
-        <v>1.048209227402881</v>
+        <v>1.025381668776226</v>
       </c>
       <c r="E14">
-        <v>1.054064023474701</v>
+        <v>1.023738992549839</v>
       </c>
       <c r="F14">
-        <v>1.060960413434249</v>
+        <v>1.031484404219274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043437693259581</v>
+        <v>1.047796715401973</v>
       </c>
       <c r="J14">
-        <v>1.047028467412943</v>
+        <v>1.032592227125272</v>
       </c>
       <c r="K14">
-        <v>1.051735322913557</v>
+        <v>1.039856651902316</v>
       </c>
       <c r="L14">
-        <v>1.057569075490772</v>
+        <v>1.0382430955458</v>
       </c>
       <c r="M14">
-        <v>1.064441006655475</v>
+        <v>1.04585225539853</v>
       </c>
       <c r="N14">
-        <v>1.019552871946221</v>
+        <v>1.014569818092184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04057753306807</v>
+        <v>1.003759445381552</v>
       </c>
       <c r="D15">
-        <v>1.04827455907195</v>
+        <v>1.025700076809377</v>
       </c>
       <c r="E15">
-        <v>1.054143620798446</v>
+        <v>1.024115828883634</v>
       </c>
       <c r="F15">
-        <v>1.06104018119035</v>
+        <v>1.031862759684792</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043457470472559</v>
+        <v>1.047922750537828</v>
       </c>
       <c r="J15">
-        <v>1.047076425945896</v>
+        <v>1.032826511332719</v>
       </c>
       <c r="K15">
-        <v>1.051781180537308</v>
+        <v>1.040083744393915</v>
       </c>
       <c r="L15">
-        <v>1.057629273089322</v>
+        <v>1.038527364635355</v>
       </c>
       <c r="M15">
-        <v>1.064501519908148</v>
+        <v>1.046139073675093</v>
       </c>
       <c r="N15">
-        <v>1.019568979198702</v>
+        <v>1.014648957962817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041073664587257</v>
+        <v>1.006289156671351</v>
       </c>
       <c r="D16">
-        <v>1.048655105441575</v>
+        <v>1.02754112226117</v>
       </c>
       <c r="E16">
-        <v>1.054607354706169</v>
+        <v>1.026295051365729</v>
       </c>
       <c r="F16">
-        <v>1.061504894843087</v>
+        <v>1.034050736674111</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043572313417247</v>
+        <v>1.048648362307848</v>
       </c>
       <c r="J16">
-        <v>1.047355626067315</v>
+        <v>1.034179457906339</v>
       </c>
       <c r="K16">
-        <v>1.052048115152379</v>
+        <v>1.041395030760982</v>
       </c>
       <c r="L16">
-        <v>1.057979839152292</v>
+        <v>1.040169901111432</v>
       </c>
       <c r="M16">
-        <v>1.064853910812738</v>
+        <v>1.047796301626794</v>
       </c>
       <c r="N16">
-        <v>1.019662737779791</v>
+        <v>1.01510595473294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041385159565942</v>
+        <v>1.007859402777647</v>
       </c>
       <c r="D17">
-        <v>1.048894063989887</v>
+        <v>1.028685382011796</v>
       </c>
       <c r="E17">
-        <v>1.054898631197909</v>
+        <v>1.027649813689306</v>
       </c>
       <c r="F17">
-        <v>1.06179677508314</v>
+        <v>1.035410911426869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043644113806419</v>
+        <v>1.049096593084868</v>
       </c>
       <c r="J17">
-        <v>1.047530813257024</v>
+        <v>1.035018870451415</v>
       </c>
       <c r="K17">
-        <v>1.052215575636006</v>
+        <v>1.042208475932875</v>
       </c>
       <c r="L17">
-        <v>1.058199905924293</v>
+        <v>1.041189808768877</v>
       </c>
       <c r="M17">
-        <v>1.065075111299919</v>
+        <v>1.048825295455288</v>
       </c>
       <c r="N17">
-        <v>1.019721556162823</v>
+        <v>1.015389470209173</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041566951316141</v>
+        <v>1.008769458778855</v>
       </c>
       <c r="D18">
-        <v>1.049033534591311</v>
+        <v>1.029349070076402</v>
       </c>
       <c r="E18">
-        <v>1.055068667139839</v>
+        <v>1.028435716324697</v>
       </c>
       <c r="F18">
-        <v>1.061967159268086</v>
+        <v>1.036199941798279</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043685907891172</v>
+        <v>1.049355577508629</v>
       </c>
       <c r="J18">
-        <v>1.047633015381746</v>
+        <v>1.035505211744051</v>
       </c>
       <c r="K18">
-        <v>1.052313259047174</v>
+        <v>1.042679726483586</v>
       </c>
       <c r="L18">
-        <v>1.058328326391616</v>
+        <v>1.041781023123376</v>
       </c>
       <c r="M18">
-        <v>1.065204189079848</v>
+        <v>1.049421762641256</v>
       </c>
       <c r="N18">
-        <v>1.01975586596208</v>
+        <v>1.015553726115316</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041628954845992</v>
+        <v>1.009078785610506</v>
       </c>
       <c r="D19">
-        <v>1.049081105687486</v>
+        <v>1.029574743104561</v>
       </c>
       <c r="E19">
-        <v>1.055126668561639</v>
+        <v>1.028702966712483</v>
       </c>
       <c r="F19">
-        <v>1.062025278766703</v>
+        <v>1.03646825363392</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043700144005216</v>
+        <v>1.049443470326961</v>
       </c>
       <c r="J19">
-        <v>1.047667866742897</v>
+        <v>1.035670491954233</v>
       </c>
       <c r="K19">
-        <v>1.052346567631942</v>
+        <v>1.04283987021234</v>
       </c>
       <c r="L19">
-        <v>1.05837212444775</v>
+        <v>1.041981994310147</v>
       </c>
       <c r="M19">
-        <v>1.065248210588807</v>
+        <v>1.049624516908306</v>
       </c>
       <c r="N19">
-        <v>1.019767565045706</v>
+        <v>1.015609546061141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041351728538235</v>
+        <v>1.007691537404228</v>
       </c>
       <c r="D20">
-        <v>1.048868416662814</v>
+        <v>1.028563002168512</v>
       </c>
       <c r="E20">
-        <v>1.054867365563511</v>
+        <v>1.027504908070482</v>
       </c>
       <c r="F20">
-        <v>1.061765445076709</v>
+        <v>1.03526542811369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043636419180118</v>
+        <v>1.049048757496221</v>
       </c>
       <c r="J20">
-        <v>1.047512015415961</v>
+        <v>1.034929149422161</v>
       </c>
       <c r="K20">
-        <v>1.052197608023591</v>
+        <v>1.04212153512189</v>
       </c>
       <c r="L20">
-        <v>1.058176288702049</v>
+        <v>1.041080764615439</v>
       </c>
       <c r="M20">
-        <v>1.065051372850482</v>
+        <v>1.048715281293414</v>
       </c>
       <c r="N20">
-        <v>1.019715245293083</v>
+        <v>1.015359167339957</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040451642266896</v>
+        <v>1.003111873348837</v>
       </c>
       <c r="D21">
-        <v>1.048178007840733</v>
+        <v>1.025229269984276</v>
       </c>
       <c r="E21">
-        <v>1.05402598851845</v>
+        <v>1.023558634247074</v>
       </c>
       <c r="F21">
-        <v>1.060922296805701</v>
+        <v>1.031303318345229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043428236182922</v>
+        <v>1.047736336088192</v>
       </c>
       <c r="J21">
-        <v>1.047005547164105</v>
+        <v>1.032480062132645</v>
       </c>
       <c r="K21">
-        <v>1.051713406116378</v>
+        <v>1.039747927776241</v>
       </c>
       <c r="L21">
-        <v>1.057540307980292</v>
+        <v>1.038107016634462</v>
       </c>
       <c r="M21">
-        <v>1.064412088062554</v>
+        <v>1.045714955563877</v>
       </c>
       <c r="N21">
-        <v>1.019545173770589</v>
+        <v>1.014531929054017</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039886654774484</v>
+        <v>1.000176959160052</v>
       </c>
       <c r="D22">
-        <v>1.047744746140969</v>
+        <v>1.023097933795817</v>
       </c>
       <c r="E22">
-        <v>1.053498251333761</v>
+        <v>1.021036652253028</v>
       </c>
       <c r="F22">
-        <v>1.060393411023491</v>
+        <v>1.02877113292006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043296575173306</v>
+        <v>1.046888227009339</v>
       </c>
       <c r="J22">
-        <v>1.046687286054953</v>
+        <v>1.030909387135733</v>
       </c>
       <c r="K22">
-        <v>1.051409038093473</v>
+        <v>1.038225295374499</v>
       </c>
       <c r="L22">
-        <v>1.057140987381434</v>
+        <v>1.036202579159532</v>
       </c>
       <c r="M22">
-        <v>1.064010654663164</v>
+        <v>1.043793392019675</v>
       </c>
       <c r="N22">
-        <v>1.019438264944181</v>
+        <v>1.014001338466137</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04018607628836</v>
+        <v>1.001738216839747</v>
       </c>
       <c r="D23">
-        <v>1.047974347426754</v>
+        <v>1.024231220098281</v>
       </c>
       <c r="E23">
-        <v>1.053777893692339</v>
+        <v>1.022377570172222</v>
       </c>
       <c r="F23">
-        <v>1.060673665574583</v>
+        <v>1.030117482407733</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043366443706119</v>
+        <v>1.047340038262094</v>
       </c>
       <c r="J23">
-        <v>1.046855985171739</v>
+        <v>1.031745021799109</v>
       </c>
       <c r="K23">
-        <v>1.051570382323346</v>
+        <v>1.03903540201239</v>
       </c>
       <c r="L23">
-        <v>1.05735262247581</v>
+        <v>1.037215527268558</v>
       </c>
       <c r="M23">
-        <v>1.064223413133809</v>
+        <v>1.044815457978959</v>
       </c>
       <c r="N23">
-        <v>1.019494937087046</v>
+        <v>1.014283629227535</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041366834265733</v>
+        <v>1.007767406564866</v>
       </c>
       <c r="D24">
-        <v>1.04888000530775</v>
+        <v>1.028618311891385</v>
       </c>
       <c r="E24">
-        <v>1.05488149272779</v>
+        <v>1.027570397972951</v>
       </c>
       <c r="F24">
-        <v>1.061779601340036</v>
+        <v>1.035331179141929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043639896315955</v>
+        <v>1.049070379937068</v>
       </c>
       <c r="J24">
-        <v>1.047520509294529</v>
+        <v>1.034969700596797</v>
       </c>
       <c r="K24">
-        <v>1.052205726794208</v>
+        <v>1.042160829864673</v>
       </c>
       <c r="L24">
-        <v>1.058186960125375</v>
+        <v>1.041130048332698</v>
       </c>
       <c r="M24">
-        <v>1.065062099063414</v>
+        <v>1.048765003461002</v>
       </c>
       <c r="N24">
-        <v>1.019718096897263</v>
+        <v>1.01537286333995</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042741032299345</v>
+        <v>1.014536058952864</v>
       </c>
       <c r="D25">
-        <v>1.049934498950134</v>
+        <v>1.033563325553795</v>
       </c>
       <c r="E25">
-        <v>1.056167614219399</v>
+        <v>1.033428320852133</v>
       </c>
       <c r="F25">
-        <v>1.063068280815149</v>
+        <v>1.041212165270536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043953851569527</v>
+        <v>1.050982148461389</v>
       </c>
       <c r="J25">
-        <v>1.048292369230241</v>
+        <v>1.038583937646106</v>
       </c>
       <c r="K25">
-        <v>1.052943260166687</v>
+        <v>1.045662035064989</v>
       </c>
       <c r="L25">
-        <v>1.059157480182642</v>
+        <v>1.045528957689861</v>
       </c>
       <c r="M25">
-        <v>1.066037509383267</v>
+        <v>1.053202710916544</v>
       </c>
       <c r="N25">
-        <v>1.019977139242566</v>
+        <v>1.016593360393428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019764923191647</v>
+        <v>1.04228480085943</v>
       </c>
       <c r="D2">
-        <v>1.037397585886024</v>
+        <v>1.056414553162168</v>
       </c>
       <c r="E2">
-        <v>1.037974844526056</v>
+        <v>1.058770741912668</v>
       </c>
       <c r="F2">
-        <v>1.045776075510613</v>
+        <v>1.062956484737118</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052433133080205</v>
+        <v>1.069908988357918</v>
       </c>
       <c r="J2">
-        <v>1.041370122315038</v>
+        <v>1.063270363472001</v>
       </c>
       <c r="K2">
-        <v>1.048359385210055</v>
+        <v>1.067140151398763</v>
       </c>
       <c r="L2">
-        <v>1.048929314984193</v>
+        <v>1.069467808698734</v>
       </c>
       <c r="M2">
-        <v>1.056632490504718</v>
+        <v>1.073603252648409</v>
       </c>
       <c r="N2">
-        <v>1.017533886026041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.023813972652359</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.066823963048664</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.058543783981387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02346949504984</v>
+        <v>1.046488076674612</v>
       </c>
       <c r="D3">
-        <v>1.040121501507613</v>
+        <v>1.059357895978801</v>
       </c>
       <c r="E3">
-        <v>1.041207624004488</v>
+        <v>1.062324071159997</v>
       </c>
       <c r="F3">
-        <v>1.049020859798295</v>
+        <v>1.066097643626697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053445571783564</v>
+        <v>1.071313400968377</v>
       </c>
       <c r="J3">
-        <v>1.043340181441568</v>
+        <v>1.065786943450961</v>
       </c>
       <c r="K3">
-        <v>1.050265521018707</v>
+        <v>1.06928369703333</v>
       </c>
       <c r="L3">
-        <v>1.051339057168101</v>
+        <v>1.072217088270579</v>
       </c>
       <c r="M3">
-        <v>1.059062697963848</v>
+        <v>1.075949276691275</v>
       </c>
       <c r="N3">
-        <v>1.018198671417254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.024751022978548</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.068680616923858</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.06005678549383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025825994403455</v>
+        <v>1.049158545701766</v>
       </c>
       <c r="D4">
-        <v>1.041857372421053</v>
+        <v>1.061231512148369</v>
       </c>
       <c r="E4">
-        <v>1.043269201855653</v>
+        <v>1.06458685902081</v>
       </c>
       <c r="F4">
-        <v>1.051089908666319</v>
+        <v>1.068099135935691</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054082197322241</v>
+        <v>1.072196923741542</v>
       </c>
       <c r="J4">
-        <v>1.044591370838568</v>
+        <v>1.067383208145584</v>
       </c>
       <c r="K4">
-        <v>1.051475557988838</v>
+        <v>1.070643096568985</v>
       </c>
       <c r="L4">
-        <v>1.052872014036606</v>
+        <v>1.073963595421991</v>
       </c>
       <c r="M4">
-        <v>1.060608477497291</v>
+        <v>1.077439680472087</v>
       </c>
       <c r="N4">
-        <v>1.018620751754521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.025344822882687</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.069860126865961</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.061018818900721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026807225693326</v>
+        <v>1.050275475928312</v>
       </c>
       <c r="D5">
-        <v>1.042580902911911</v>
+        <v>1.062018089952935</v>
       </c>
       <c r="E5">
-        <v>1.044128846417128</v>
+        <v>1.065535119773446</v>
       </c>
       <c r="F5">
-        <v>1.051952621525473</v>
+        <v>1.068938204367883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05434548272017</v>
+        <v>1.072566231809977</v>
       </c>
       <c r="J5">
-        <v>1.045111859756932</v>
+        <v>1.068052367608824</v>
       </c>
       <c r="K5">
-        <v>1.05197878865317</v>
+        <v>1.071214189075284</v>
       </c>
       <c r="L5">
-        <v>1.053510325499046</v>
+        <v>1.074695664297481</v>
       </c>
       <c r="M5">
-        <v>1.06125207853134</v>
+        <v>1.07806461697373</v>
       </c>
       <c r="N5">
-        <v>1.018796302732855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.02559535499981</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.070354702936679</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.061429577670485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026971433061741</v>
+        <v>1.050469297299703</v>
       </c>
       <c r="D6">
-        <v>1.042702026062524</v>
+        <v>1.062157177118438</v>
       </c>
       <c r="E6">
-        <v>1.044272777162468</v>
+        <v>1.065700484667473</v>
       </c>
       <c r="F6">
-        <v>1.052097063158696</v>
+        <v>1.069084583512289</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054389436407191</v>
+        <v>1.072632511082171</v>
       </c>
       <c r="J6">
-        <v>1.045198932698938</v>
+        <v>1.06817108310621</v>
       </c>
       <c r="K6">
-        <v>1.05206296610521</v>
+        <v>1.071317063629069</v>
       </c>
       <c r="L6">
-        <v>1.053617144920983</v>
+        <v>1.074824715235079</v>
       </c>
       <c r="M6">
-        <v>1.061359780152111</v>
+        <v>1.078175028380317</v>
       </c>
       <c r="N6">
-        <v>1.018825668804776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.025641923709246</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.070442082725938</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.061510813759146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025839142396734</v>
+        <v>1.0491923110569</v>
       </c>
       <c r="D7">
-        <v>1.041867064542203</v>
+        <v>1.061262112541985</v>
       </c>
       <c r="E7">
-        <v>1.043280715883254</v>
+        <v>1.064617514791627</v>
       </c>
       <c r="F7">
-        <v>1.051101463979424</v>
+        <v>1.068126354039779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054085732357722</v>
+        <v>1.072214340980202</v>
       </c>
       <c r="J7">
-        <v>1.044598347120322</v>
+        <v>1.067410552511685</v>
       </c>
       <c r="K7">
-        <v>1.051482303509486</v>
+        <v>1.070670605617974</v>
       </c>
       <c r="L7">
-        <v>1.052880567124618</v>
+        <v>1.07399117324414</v>
       </c>
       <c r="M7">
-        <v>1.060617101662696</v>
+        <v>1.077463870385665</v>
       </c>
       <c r="N7">
-        <v>1.018623104852183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.025360882111613</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.069879270820469</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.061057821272005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021025480662645</v>
+        <v>1.043739779847928</v>
       </c>
       <c r="D8">
-        <v>1.038323768607253</v>
+        <v>1.057441178122242</v>
       </c>
       <c r="E8">
-        <v>1.03907376203098</v>
+        <v>1.060002197471241</v>
       </c>
       <c r="F8">
-        <v>1.046879110677909</v>
+        <v>1.064044916469725</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052779165826368</v>
+        <v>1.070404702843795</v>
       </c>
       <c r="J8">
-        <v>1.042040874438415</v>
+        <v>1.064151030193458</v>
       </c>
       <c r="K8">
-        <v>1.049008485629555</v>
+        <v>1.067895474342772</v>
       </c>
       <c r="L8">
-        <v>1.049749240658653</v>
+        <v>1.070426407244375</v>
       </c>
       <c r="M8">
-        <v>1.057459419053608</v>
+        <v>1.074421997391785</v>
       </c>
       <c r="N8">
-        <v>1.017760252770344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.024149719871686</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.067471921777587</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.059100130342998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012219050607234</v>
+        <v>1.033705180870636</v>
       </c>
       <c r="D9">
-        <v>1.03186823102793</v>
+        <v>1.050428809229498</v>
       </c>
       <c r="E9">
-        <v>1.031419640882019</v>
+        <v>1.051548276436701</v>
       </c>
       <c r="F9">
-        <v>1.039195649050987</v>
+        <v>1.056578605450505</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050331713562993</v>
+        <v>1.066996387967944</v>
       </c>
       <c r="J9">
-        <v>1.037347580483494</v>
+        <v>1.058121397721993</v>
       </c>
       <c r="K9">
-        <v>1.044464593848694</v>
+        <v>1.062753466114335</v>
       </c>
       <c r="L9">
-        <v>1.044022724555446</v>
+        <v>1.063856933759511</v>
       </c>
       <c r="M9">
-        <v>1.051683274463412</v>
+        <v>1.068815897549883</v>
       </c>
       <c r="N9">
-        <v>1.016175901616399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.021895081500089</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.063035215373247</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.055461467752512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006110903892</v>
+        <v>1.026832041433393</v>
       </c>
       <c r="D10">
-        <v>1.02741129869489</v>
+        <v>1.045672429424931</v>
       </c>
       <c r="E10">
-        <v>1.02614136081612</v>
+        <v>1.045814988734963</v>
       </c>
       <c r="F10">
-        <v>1.03389643056513</v>
+        <v>1.051550644513671</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048597372412364</v>
+        <v>1.064648661931033</v>
       </c>
       <c r="J10">
-        <v>1.034084148833429</v>
+        <v>1.054020092278251</v>
       </c>
       <c r="K10">
-        <v>1.041302664048867</v>
+        <v>1.059263273057751</v>
       </c>
       <c r="L10">
-        <v>1.04005413859091</v>
+        <v>1.059403539251158</v>
       </c>
       <c r="M10">
-        <v>1.047679505949375</v>
+        <v>1.065047595602549</v>
       </c>
       <c r="N10">
-        <v>1.015073762604009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.020389879932344</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.060103064076079</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.05301020084305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0034051877451</v>
+        <v>1.024635540463287</v>
       </c>
       <c r="D11">
-        <v>1.025442495394163</v>
+        <v>1.044339457780618</v>
       </c>
       <c r="E11">
-        <v>1.023810979645261</v>
+        <v>1.044197012650326</v>
       </c>
       <c r="F11">
-        <v>1.031556681624233</v>
+        <v>1.05036242275456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047820804470009</v>
+        <v>1.064122136234969</v>
       </c>
       <c r="J11">
-        <v>1.032636989864093</v>
+        <v>1.053018188597828</v>
       </c>
       <c r="K11">
-        <v>1.03990004106502</v>
+        <v>1.058470988680027</v>
       </c>
       <c r="L11">
-        <v>1.038297404840636</v>
+        <v>1.058330944112356</v>
       </c>
       <c r="M11">
-        <v>1.045907051852152</v>
+        <v>1.064393218555144</v>
       </c>
       <c r="N11">
-        <v>1.014584938765852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.02026823051038</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.060010843722749</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.052482132094765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002390610229684</v>
+        <v>1.024117937584755</v>
       </c>
       <c r="D12">
-        <v>1.024705116452137</v>
+        <v>1.044112578088048</v>
       </c>
       <c r="E12">
-        <v>1.022938346400696</v>
+        <v>1.043919803781677</v>
       </c>
       <c r="F12">
-        <v>1.030680525894749</v>
+        <v>1.050289478826238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047528398195023</v>
+        <v>1.064109673707767</v>
       </c>
       <c r="J12">
-        <v>1.032094138610303</v>
+        <v>1.052935530062608</v>
       </c>
       <c r="K12">
-        <v>1.039373832498583</v>
+        <v>1.058440788680888</v>
       </c>
       <c r="L12">
-        <v>1.037638894766345</v>
+        <v>1.058251316164197</v>
       </c>
       <c r="M12">
-        <v>1.045242630602685</v>
+        <v>1.064512720691046</v>
       </c>
       <c r="N12">
-        <v>1.014401563485774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.020426628732776</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.060424590942498</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.05246078062818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002608679761061</v>
+        <v>1.024885224045864</v>
       </c>
       <c r="D13">
-        <v>1.02486356559297</v>
+        <v>1.044749705411049</v>
       </c>
       <c r="E13">
-        <v>1.023125851911486</v>
+        <v>1.04468295170299</v>
       </c>
       <c r="F13">
-        <v>1.030868788890257</v>
+        <v>1.05110002774794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047591301112124</v>
+        <v>1.06451431281289</v>
       </c>
       <c r="J13">
-        <v>1.032210825638987</v>
+        <v>1.053583588152073</v>
       </c>
       <c r="K13">
-        <v>1.039486944884172</v>
+        <v>1.059025685475247</v>
       </c>
       <c r="L13">
-        <v>1.037780421810584</v>
+        <v>1.05896006934206</v>
       </c>
       <c r="M13">
-        <v>1.045385428850646</v>
+        <v>1.06526864133851</v>
       </c>
       <c r="N13">
-        <v>1.01444098080515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.020829089793969</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.061293555543165</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.052871869440491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003321519814121</v>
+        <v>1.026003131546155</v>
       </c>
       <c r="D14">
-        <v>1.025381668776226</v>
+        <v>1.045586851479012</v>
       </c>
       <c r="E14">
-        <v>1.023738992549839</v>
+        <v>1.045687212896415</v>
       </c>
       <c r="F14">
-        <v>1.031484404219274</v>
+        <v>1.052066929384086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047796715401973</v>
+        <v>1.064985818153174</v>
       </c>
       <c r="J14">
-        <v>1.032592227125272</v>
+        <v>1.054366948011254</v>
       </c>
       <c r="K14">
-        <v>1.039856651902316</v>
+        <v>1.059713307310117</v>
       </c>
       <c r="L14">
-        <v>1.0382430955458</v>
+        <v>1.059811980903292</v>
       </c>
       <c r="M14">
-        <v>1.04585225539853</v>
+        <v>1.066085257409048</v>
       </c>
       <c r="N14">
-        <v>1.014569818092184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.021220243688074</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.062109446294877</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.053359410735728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003759445381552</v>
+        <v>1.026565659886159</v>
       </c>
       <c r="D15">
-        <v>1.025700076809377</v>
+        <v>1.04599080465269</v>
       </c>
       <c r="E15">
-        <v>1.024115828883634</v>
+        <v>1.046171327449217</v>
       </c>
       <c r="F15">
-        <v>1.031862759684792</v>
+        <v>1.052510594676425</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047922750537828</v>
+        <v>1.065199569252762</v>
       </c>
       <c r="J15">
-        <v>1.032826511332719</v>
+        <v>1.05472889933614</v>
       </c>
       <c r="K15">
-        <v>1.040083744393915</v>
+        <v>1.060027160239053</v>
       </c>
       <c r="L15">
-        <v>1.038527364635355</v>
+        <v>1.060204670965713</v>
       </c>
       <c r="M15">
-        <v>1.046139073675093</v>
+        <v>1.066439008506595</v>
       </c>
       <c r="N15">
-        <v>1.014648957962817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.021375879858786</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.062426006470046</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.053587036314342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006289156671351</v>
+        <v>1.029333177176623</v>
       </c>
       <c r="D16">
-        <v>1.02754112226117</v>
+        <v>1.047890069103396</v>
       </c>
       <c r="E16">
-        <v>1.026295051365729</v>
+        <v>1.048460936393789</v>
       </c>
       <c r="F16">
-        <v>1.034050736674111</v>
+        <v>1.054508810806257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048648362307848</v>
+        <v>1.066135809785999</v>
       </c>
       <c r="J16">
-        <v>1.034179457906339</v>
+        <v>1.056356229565856</v>
       </c>
       <c r="K16">
-        <v>1.041395030760982</v>
+        <v>1.061411031234923</v>
       </c>
       <c r="L16">
-        <v>1.040169901111432</v>
+        <v>1.061972796937815</v>
       </c>
       <c r="M16">
-        <v>1.047796301626794</v>
+        <v>1.06792502177004</v>
       </c>
       <c r="N16">
-        <v>1.01510595473294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.021940744868087</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.063562481331348</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.054568525683591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007859402777647</v>
+        <v>1.030873078217542</v>
       </c>
       <c r="D17">
-        <v>1.028685382011796</v>
+        <v>1.048910629541469</v>
       </c>
       <c r="E17">
-        <v>1.027649813689306</v>
+        <v>1.049693084617922</v>
       </c>
       <c r="F17">
-        <v>1.035410911426869</v>
+        <v>1.055533208626646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049096593084868</v>
+        <v>1.066605064421215</v>
       </c>
       <c r="J17">
-        <v>1.035018870451415</v>
+        <v>1.057194449915833</v>
       </c>
       <c r="K17">
-        <v>1.042208475932875</v>
+        <v>1.062112183343324</v>
       </c>
       <c r="L17">
-        <v>1.041189808768877</v>
+        <v>1.062882516993983</v>
       </c>
       <c r="M17">
-        <v>1.048825295455288</v>
+        <v>1.068632892444684</v>
       </c>
       <c r="N17">
-        <v>1.015389470209173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.022169933691912</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.063995224726083</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.055066766699038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008769458778855</v>
+        <v>1.031470680175267</v>
       </c>
       <c r="D18">
-        <v>1.029349070076402</v>
+        <v>1.049234469650711</v>
       </c>
       <c r="E18">
-        <v>1.028435716324697</v>
+        <v>1.0500902576269</v>
       </c>
       <c r="F18">
-        <v>1.036199941798279</v>
+        <v>1.055766160603595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049355577508629</v>
+        <v>1.066693475646388</v>
       </c>
       <c r="J18">
-        <v>1.035505211744051</v>
+        <v>1.057395307227758</v>
       </c>
       <c r="K18">
-        <v>1.042679726483586</v>
+        <v>1.062254224215741</v>
       </c>
       <c r="L18">
-        <v>1.041781023123376</v>
+        <v>1.063096969178962</v>
       </c>
       <c r="M18">
-        <v>1.049421762641256</v>
+        <v>1.06868704732256</v>
       </c>
       <c r="N18">
-        <v>1.015553726115316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.022107276124334</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.063805053877115</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.055155839599052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009078785610506</v>
+        <v>1.031240805098442</v>
       </c>
       <c r="D19">
-        <v>1.029574743104561</v>
+        <v>1.048954707757763</v>
       </c>
       <c r="E19">
-        <v>1.028702966712483</v>
+        <v>1.049753647797798</v>
       </c>
       <c r="F19">
-        <v>1.03646825363392</v>
+        <v>1.055302012238475</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049443470326961</v>
+        <v>1.066455892862274</v>
       </c>
       <c r="J19">
-        <v>1.035670491954233</v>
+        <v>1.057045351286666</v>
       </c>
       <c r="K19">
-        <v>1.04283987021234</v>
+        <v>1.061918426158305</v>
       </c>
       <c r="L19">
-        <v>1.041981994310147</v>
+        <v>1.062705244988993</v>
       </c>
       <c r="M19">
-        <v>1.049624516908306</v>
+        <v>1.068170075974694</v>
       </c>
       <c r="N19">
-        <v>1.015609546061141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.021805416903504</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.063078093126423</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.054924669750215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007691537404228</v>
+        <v>1.02866913902869</v>
       </c>
       <c r="D20">
-        <v>1.028563002168512</v>
+        <v>1.046960663812715</v>
       </c>
       <c r="E20">
-        <v>1.027504908070482</v>
+        <v>1.047352109142092</v>
       </c>
       <c r="F20">
-        <v>1.03526542811369</v>
+        <v>1.052899786783279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049048757496221</v>
+        <v>1.065296337002384</v>
       </c>
       <c r="J20">
-        <v>1.034929149422161</v>
+        <v>1.055137956072266</v>
       </c>
       <c r="K20">
-        <v>1.04212153512189</v>
+        <v>1.060225140417842</v>
       </c>
       <c r="L20">
-        <v>1.041080764615439</v>
+        <v>1.060610472652402</v>
       </c>
       <c r="M20">
-        <v>1.048715281293414</v>
+        <v>1.066072137597806</v>
       </c>
       <c r="N20">
-        <v>1.015359167339957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.020819472114298</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.060903579407728</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.053731341290195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003111873348837</v>
+        <v>1.023338812919975</v>
       </c>
       <c r="D21">
-        <v>1.025229269984276</v>
+        <v>1.043243226456986</v>
       </c>
       <c r="E21">
-        <v>1.023558634247074</v>
+        <v>1.042876512064157</v>
       </c>
       <c r="F21">
-        <v>1.031303318345229</v>
+        <v>1.048932636580521</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047736336088192</v>
+        <v>1.06341419608461</v>
       </c>
       <c r="J21">
-        <v>1.032480062132645</v>
+        <v>1.051892149057196</v>
       </c>
       <c r="K21">
-        <v>1.039747927776241</v>
+        <v>1.057449180036818</v>
       </c>
       <c r="L21">
-        <v>1.038107016634462</v>
+        <v>1.057088692367089</v>
       </c>
       <c r="M21">
-        <v>1.045714955563877</v>
+        <v>1.063042704184897</v>
       </c>
       <c r="N21">
-        <v>1.014531929054017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.019580587480872</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.058466243667228</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.051771882898578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000176959160052</v>
+        <v>1.019946412839277</v>
       </c>
       <c r="D22">
-        <v>1.023097933795817</v>
+        <v>1.040886855238586</v>
       </c>
       <c r="E22">
-        <v>1.021036652253028</v>
+        <v>1.040045954098666</v>
       </c>
       <c r="F22">
-        <v>1.02877113292006</v>
+        <v>1.046439792905714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046888227009339</v>
+        <v>1.062215442369983</v>
       </c>
       <c r="J22">
-        <v>1.030909387135733</v>
+        <v>1.049835435081645</v>
       </c>
       <c r="K22">
-        <v>1.038225295374499</v>
+        <v>1.055689636963358</v>
       </c>
       <c r="L22">
-        <v>1.036202579159532</v>
+        <v>1.054863754374767</v>
       </c>
       <c r="M22">
-        <v>1.043793392019675</v>
+        <v>1.061144184278216</v>
       </c>
       <c r="N22">
-        <v>1.014001338466137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.018801521535654</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.056963727242477</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.050514659383829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001738216839747</v>
+        <v>1.021732141480091</v>
       </c>
       <c r="D23">
-        <v>1.024231220098281</v>
+        <v>1.042120322568527</v>
       </c>
       <c r="E23">
-        <v>1.022377570172222</v>
+        <v>1.041533094882332</v>
       </c>
       <c r="F23">
-        <v>1.030117482407733</v>
+        <v>1.047749387510422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047340038262094</v>
+        <v>1.062841693933442</v>
       </c>
       <c r="J23">
-        <v>1.031745021799109</v>
+        <v>1.050911310090581</v>
       </c>
       <c r="K23">
-        <v>1.03903540201239</v>
+        <v>1.056606541970647</v>
       </c>
       <c r="L23">
-        <v>1.037215527268558</v>
+        <v>1.056029527253118</v>
       </c>
       <c r="M23">
-        <v>1.044815457978959</v>
+        <v>1.062138457771085</v>
       </c>
       <c r="N23">
-        <v>1.014283629227535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.019202419019487</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.057750610195556</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.051153497793534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007767406564866</v>
+        <v>1.028646068009613</v>
       </c>
       <c r="D24">
-        <v>1.028618311891385</v>
+        <v>1.046917805522074</v>
       </c>
       <c r="E24">
-        <v>1.027570397972951</v>
+        <v>1.047309526395268</v>
       </c>
       <c r="F24">
-        <v>1.035331179141929</v>
+        <v>1.052839679862948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049070379937068</v>
+        <v>1.065257792128121</v>
       </c>
       <c r="J24">
-        <v>1.034969700596797</v>
+        <v>1.055084319493974</v>
       </c>
       <c r="K24">
-        <v>1.042160829864673</v>
+        <v>1.060168214144997</v>
       </c>
       <c r="L24">
-        <v>1.041130048332698</v>
+        <v>1.060553824764422</v>
       </c>
       <c r="M24">
-        <v>1.048765003461002</v>
+        <v>1.065998335519051</v>
       </c>
       <c r="N24">
-        <v>1.01537286333995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.020767655432057</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.060805367701964</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.053664329492632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014536058952864</v>
+        <v>1.036380530834601</v>
       </c>
       <c r="D25">
-        <v>1.033563325553795</v>
+        <v>1.052305395209886</v>
       </c>
       <c r="E25">
-        <v>1.033428320852133</v>
+        <v>1.053800284412819</v>
       </c>
       <c r="F25">
-        <v>1.041212165270536</v>
+        <v>1.058566323057941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050982148461389</v>
+        <v>1.0679225879922</v>
       </c>
       <c r="J25">
-        <v>1.038583937646106</v>
+        <v>1.05974264998287</v>
       </c>
       <c r="K25">
-        <v>1.045662035064989</v>
+        <v>1.064142587387755</v>
       </c>
       <c r="L25">
-        <v>1.045528957689861</v>
+        <v>1.065617121836996</v>
       </c>
       <c r="M25">
-        <v>1.053202710916544</v>
+        <v>1.070318747436366</v>
       </c>
       <c r="N25">
-        <v>1.016593360393428</v>
+        <v>1.02251216079689</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.064224583679737</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.056471489774437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04228480085943</v>
+        <v>1.038755312335753</v>
       </c>
       <c r="D2">
-        <v>1.056414553162168</v>
+        <v>1.052096471000351</v>
       </c>
       <c r="E2">
-        <v>1.058770741912668</v>
+        <v>1.055329351582138</v>
       </c>
       <c r="F2">
-        <v>1.062956484737118</v>
+        <v>1.059694941229392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.069908988357918</v>
+        <v>1.067356420100948</v>
       </c>
       <c r="J2">
-        <v>1.063270363472001</v>
+        <v>1.05983557526116</v>
       </c>
       <c r="K2">
-        <v>1.067140151398763</v>
+        <v>1.06287477007205</v>
       </c>
       <c r="L2">
-        <v>1.069467808698734</v>
+        <v>1.066068143940653</v>
       </c>
       <c r="M2">
-        <v>1.073603252648409</v>
+        <v>1.070380859748868</v>
       </c>
       <c r="N2">
-        <v>1.023813972652359</v>
+        <v>1.022377543117908</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.066823963048664</v>
+        <v>1.064273739858434</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.058543783981387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.055536491704913</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.028322214018243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046488076674612</v>
+        <v>1.042688216524273</v>
       </c>
       <c r="D3">
-        <v>1.059357895978801</v>
+        <v>1.054746665619919</v>
       </c>
       <c r="E3">
-        <v>1.062324071159997</v>
+        <v>1.058621493484727</v>
       </c>
       <c r="F3">
-        <v>1.066097643626697</v>
+        <v>1.062603404188012</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.071313400968377</v>
+        <v>1.068575741644804</v>
       </c>
       <c r="J3">
-        <v>1.065786943450961</v>
+        <v>1.06207913878255</v>
       </c>
       <c r="K3">
-        <v>1.06928369703333</v>
+        <v>1.064723883484726</v>
       </c>
       <c r="L3">
-        <v>1.072217088270579</v>
+        <v>1.068555468712462</v>
       </c>
       <c r="M3">
-        <v>1.075949276691275</v>
+        <v>1.072493345529781</v>
       </c>
       <c r="N3">
-        <v>1.024751022978548</v>
+        <v>1.023020396821465</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.068680616923858</v>
+        <v>1.065945576097615</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.06005678549383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.056841041300381</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.028743548759872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049158545701766</v>
+        <v>1.045189156351914</v>
       </c>
       <c r="D4">
-        <v>1.061231512148369</v>
+        <v>1.056435581387883</v>
       </c>
       <c r="E4">
-        <v>1.06458685902081</v>
+        <v>1.060720235699773</v>
       </c>
       <c r="F4">
-        <v>1.068099135935691</v>
+        <v>1.064458598126082</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.072196923741542</v>
+        <v>1.069342517471242</v>
       </c>
       <c r="J4">
-        <v>1.067383208145584</v>
+        <v>1.063503532600569</v>
       </c>
       <c r="K4">
-        <v>1.070643096568985</v>
+        <v>1.065897445333191</v>
       </c>
       <c r="L4">
-        <v>1.073963595421991</v>
+        <v>1.070137153786163</v>
       </c>
       <c r="M4">
-        <v>1.077439680472087</v>
+        <v>1.073836661693019</v>
       </c>
       <c r="N4">
-        <v>1.025344822882687</v>
+        <v>1.023428549772291</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.069860126865961</v>
+        <v>1.06700868420048</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.061018818900721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.057671764870688</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.029008655782053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050275475928312</v>
+        <v>1.046235180549017</v>
       </c>
       <c r="D5">
-        <v>1.062018089952935</v>
+        <v>1.057144949310401</v>
       </c>
       <c r="E5">
-        <v>1.065535119773446</v>
+        <v>1.061599864144861</v>
       </c>
       <c r="F5">
-        <v>1.068938204367883</v>
+        <v>1.065236492038148</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.072566231809977</v>
+        <v>1.069662942934728</v>
       </c>
       <c r="J5">
-        <v>1.068052367608824</v>
+        <v>1.064100684881405</v>
       </c>
       <c r="K5">
-        <v>1.071214189075284</v>
+        <v>1.066390788918387</v>
       </c>
       <c r="L5">
-        <v>1.074695664297481</v>
+        <v>1.070800210309535</v>
       </c>
       <c r="M5">
-        <v>1.07806461697373</v>
+        <v>1.074400044371848</v>
       </c>
       <c r="N5">
-        <v>1.02559535499981</v>
+        <v>1.023600763170483</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.070354702936679</v>
+        <v>1.067454548053533</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.061429577670485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.058028270694304</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.029120601042941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050469297299703</v>
+        <v>1.046416100120526</v>
       </c>
       <c r="D6">
-        <v>1.062157177118438</v>
+        <v>1.057270272969117</v>
       </c>
       <c r="E6">
-        <v>1.065700484667473</v>
+        <v>1.061752786948993</v>
       </c>
       <c r="F6">
-        <v>1.069084583512289</v>
+        <v>1.065371861321901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.072632511082171</v>
+        <v>1.069720447709148</v>
       </c>
       <c r="J6">
-        <v>1.06817108310621</v>
+        <v>1.064206327984075</v>
       </c>
       <c r="K6">
-        <v>1.071317063629069</v>
+        <v>1.066479813624472</v>
       </c>
       <c r="L6">
-        <v>1.074824715235079</v>
+        <v>1.070916761212158</v>
       </c>
       <c r="M6">
-        <v>1.078175028380317</v>
+        <v>1.074499386657452</v>
       </c>
       <c r="N6">
-        <v>1.025641923709246</v>
+        <v>1.023632566402987</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.070442082725938</v>
+        <v>1.067533168006292</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.061510813759146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.058100591620851</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.029142051892383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0491923110569</v>
+        <v>1.045229237652612</v>
       </c>
       <c r="D7">
-        <v>1.061262112541985</v>
+        <v>1.056470644603994</v>
       </c>
       <c r="E7">
-        <v>1.064617514791627</v>
+        <v>1.060756585197868</v>
       </c>
       <c r="F7">
-        <v>1.068126354039779</v>
+        <v>1.064490291145194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.072214340980202</v>
+        <v>1.069363259606607</v>
       </c>
       <c r="J7">
-        <v>1.067410552511685</v>
+        <v>1.063537009391619</v>
       </c>
       <c r="K7">
-        <v>1.070670605617974</v>
+        <v>1.065929349987936</v>
       </c>
       <c r="L7">
-        <v>1.07399117324414</v>
+        <v>1.070170349814096</v>
       </c>
       <c r="M7">
-        <v>1.077463870385665</v>
+        <v>1.073865265501587</v>
       </c>
       <c r="N7">
-        <v>1.025360882111613</v>
+        <v>1.02346917735307</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.069879270820469</v>
+        <v>1.067031321402833</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.061057821272005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.057715892519035</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.029021087778157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043739779847928</v>
+        <v>1.040145325242409</v>
       </c>
       <c r="D8">
-        <v>1.057441178122242</v>
+        <v>1.053044228659527</v>
       </c>
       <c r="E8">
-        <v>1.060002197471241</v>
+        <v>1.056496617938329</v>
       </c>
       <c r="F8">
-        <v>1.064044916469725</v>
+        <v>1.06072405019668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.070404702843795</v>
+        <v>1.067804162041668</v>
       </c>
       <c r="J8">
-        <v>1.064151030193458</v>
+        <v>1.060649798526921</v>
       </c>
       <c r="K8">
-        <v>1.067895474342772</v>
+        <v>1.063550602560279</v>
       </c>
       <c r="L8">
-        <v>1.070426407244375</v>
+        <v>1.06696205629822</v>
       </c>
       <c r="M8">
-        <v>1.074421997391785</v>
+        <v>1.071139812228552</v>
       </c>
       <c r="N8">
-        <v>1.024149719871686</v>
+        <v>1.022699212996329</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.067471921777587</v>
+        <v>1.064874380645759</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.059100130342998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.056038922095196</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.028486664193439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033705180870636</v>
+        <v>1.030777170967692</v>
       </c>
       <c r="D9">
-        <v>1.050428809229498</v>
+        <v>1.046746478299879</v>
       </c>
       <c r="E9">
-        <v>1.051548276436701</v>
+        <v>1.0486841452271</v>
       </c>
       <c r="F9">
-        <v>1.056578605450505</v>
+        <v>1.053827825764771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.066996387967944</v>
+        <v>1.064846645868603</v>
       </c>
       <c r="J9">
-        <v>1.058121397721993</v>
+        <v>1.055288034527355</v>
       </c>
       <c r="K9">
-        <v>1.062753466114335</v>
+        <v>1.05912406940542</v>
       </c>
       <c r="L9">
-        <v>1.063856933759511</v>
+        <v>1.0610338233071</v>
       </c>
       <c r="M9">
-        <v>1.068815897549883</v>
+        <v>1.066104036388979</v>
       </c>
       <c r="N9">
-        <v>1.021895081500089</v>
+        <v>1.021169956111676</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.063035215373247</v>
+        <v>1.060889020576806</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.055461467752512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.052905835573431</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.027462505153733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026832041433393</v>
+        <v>1.024406117537584</v>
       </c>
       <c r="D10">
-        <v>1.045672429424931</v>
+        <v>1.04251345251172</v>
       </c>
       <c r="E10">
-        <v>1.045814988734963</v>
+        <v>1.043430340230151</v>
       </c>
       <c r="F10">
-        <v>1.051550644513671</v>
+        <v>1.049223289808602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.064648661931033</v>
+        <v>1.062830266354162</v>
       </c>
       <c r="J10">
-        <v>1.054020092278251</v>
+        <v>1.051683787510748</v>
       </c>
       <c r="K10">
-        <v>1.059263273057751</v>
+        <v>1.05615531603363</v>
       </c>
       <c r="L10">
-        <v>1.059403539251158</v>
+        <v>1.057057354465913</v>
       </c>
       <c r="M10">
-        <v>1.065047595602549</v>
+        <v>1.062757254411859</v>
       </c>
       <c r="N10">
-        <v>1.020389879932344</v>
+        <v>1.020279097895333</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.060103064076079</v>
+        <v>1.058290565573213</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.05301020084305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.050824929869727</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.026787739000074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024635540463287</v>
+        <v>1.022324386495655</v>
       </c>
       <c r="D11">
-        <v>1.044339457780618</v>
+        <v>1.04130927315462</v>
       </c>
       <c r="E11">
-        <v>1.044197012650326</v>
+        <v>1.041923495170547</v>
       </c>
       <c r="F11">
-        <v>1.05036242275456</v>
+        <v>1.048138236766513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.064122136234969</v>
+        <v>1.062384101671708</v>
       </c>
       <c r="J11">
-        <v>1.053018188597828</v>
+        <v>1.050797057575243</v>
       </c>
       <c r="K11">
-        <v>1.058470988680027</v>
+        <v>1.055492053181331</v>
       </c>
       <c r="L11">
-        <v>1.058330944112356</v>
+        <v>1.056095855848713</v>
       </c>
       <c r="M11">
-        <v>1.064393218555144</v>
+        <v>1.062206058740932</v>
       </c>
       <c r="N11">
-        <v>1.02026823051038</v>
+        <v>1.020410794195403</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.060010843722749</v>
+        <v>1.058280829119077</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.052482132094765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.050391312845175</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02676462475897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024117937584755</v>
+        <v>1.021786365914053</v>
       </c>
       <c r="D12">
-        <v>1.044112578088048</v>
+        <v>1.041073495377886</v>
       </c>
       <c r="E12">
-        <v>1.043919803781677</v>
+        <v>1.041629131189895</v>
       </c>
       <c r="F12">
-        <v>1.050289478826238</v>
+        <v>1.048055206148822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.064109673707767</v>
+        <v>1.062364181199215</v>
       </c>
       <c r="J12">
-        <v>1.052935530062608</v>
+        <v>1.05069647474927</v>
       </c>
       <c r="K12">
-        <v>1.058440788680888</v>
+        <v>1.055453942665847</v>
       </c>
       <c r="L12">
-        <v>1.058251316164197</v>
+        <v>1.055999998593254</v>
       </c>
       <c r="M12">
-        <v>1.064512720691046</v>
+        <v>1.062316232331053</v>
       </c>
       <c r="N12">
-        <v>1.020426628732776</v>
+        <v>1.020593297635043</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.060424590942498</v>
+        <v>1.058687760858008</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.05246078062818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.050364369033711</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026845175454421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024885224045864</v>
+        <v>1.022410125217289</v>
       </c>
       <c r="D13">
-        <v>1.044749705411049</v>
+        <v>1.041581691925472</v>
       </c>
       <c r="E13">
-        <v>1.04468295170299</v>
+        <v>1.042259236624656</v>
       </c>
       <c r="F13">
-        <v>1.05110002774794</v>
+        <v>1.048755057068746</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.06451431281289</v>
+        <v>1.062683722271639</v>
       </c>
       <c r="J13">
-        <v>1.053583588152073</v>
+        <v>1.05120615572856</v>
       </c>
       <c r="K13">
-        <v>1.059025685475247</v>
+        <v>1.055911867072288</v>
       </c>
       <c r="L13">
-        <v>1.05896006934206</v>
+        <v>1.056577785247209</v>
       </c>
       <c r="M13">
-        <v>1.06526864133851</v>
+        <v>1.062963122329945</v>
       </c>
       <c r="N13">
-        <v>1.020829089793969</v>
+        <v>1.020800750659233</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.061293555543165</v>
+        <v>1.059470953028312</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.052871869440491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.050685439215593</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.027019434194195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026003131546155</v>
+        <v>1.023374454477793</v>
       </c>
       <c r="D14">
-        <v>1.045586851479012</v>
+        <v>1.042276730031663</v>
       </c>
       <c r="E14">
-        <v>1.045687212896415</v>
+        <v>1.04312029740394</v>
       </c>
       <c r="F14">
-        <v>1.052066929384086</v>
+        <v>1.049601044952052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.064985818153174</v>
+        <v>1.06306205456513</v>
       </c>
       <c r="J14">
-        <v>1.054366948011254</v>
+        <v>1.051840465834775</v>
       </c>
       <c r="K14">
-        <v>1.059713307310117</v>
+        <v>1.056459088812406</v>
       </c>
       <c r="L14">
-        <v>1.059811980903292</v>
+        <v>1.057288366135068</v>
       </c>
       <c r="M14">
-        <v>1.066085257409048</v>
+        <v>1.063660316494841</v>
       </c>
       <c r="N14">
-        <v>1.021220243688074</v>
+        <v>1.020959975618931</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.062109446294877</v>
+        <v>1.060192687334738</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.053359410735728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.051073851166831</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.027185198509547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026565659886159</v>
+        <v>1.023872275655193</v>
       </c>
       <c r="D15">
-        <v>1.04599080465269</v>
+        <v>1.042619535722969</v>
       </c>
       <c r="E15">
-        <v>1.046171327449217</v>
+        <v>1.043543798534231</v>
       </c>
       <c r="F15">
-        <v>1.052510594676425</v>
+        <v>1.04999301853626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.065199569252762</v>
+        <v>1.063235889935939</v>
       </c>
       <c r="J15">
-        <v>1.05472889933614</v>
+        <v>1.052139296801854</v>
       </c>
       <c r="K15">
-        <v>1.060027160239053</v>
+        <v>1.056712388925168</v>
       </c>
       <c r="L15">
-        <v>1.060204670965713</v>
+        <v>1.057621115594118</v>
       </c>
       <c r="M15">
-        <v>1.066439008506595</v>
+        <v>1.063962908940441</v>
       </c>
       <c r="N15">
-        <v>1.021375879858786</v>
+        <v>1.021012758108982</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.062426006470046</v>
+        <v>1.060468860144593</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.053587036314342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.051259238556151</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.027251294584558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029333177176623</v>
+        <v>1.026389708769575</v>
       </c>
       <c r="D16">
-        <v>1.047890069103396</v>
+        <v>1.044272470759074</v>
       </c>
       <c r="E16">
-        <v>1.048460936393789</v>
+        <v>1.045597045001924</v>
       </c>
       <c r="F16">
-        <v>1.054508810806257</v>
+        <v>1.051786124292196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.066135809785999</v>
+        <v>1.064012945104529</v>
       </c>
       <c r="J16">
-        <v>1.056356229565856</v>
+        <v>1.053520490796716</v>
       </c>
       <c r="K16">
-        <v>1.061411031234923</v>
+        <v>1.05785140665207</v>
       </c>
       <c r="L16">
-        <v>1.061972796937815</v>
+        <v>1.059154694247927</v>
       </c>
       <c r="M16">
-        <v>1.06792502177004</v>
+        <v>1.065245221346907</v>
       </c>
       <c r="N16">
-        <v>1.021940744868087</v>
+        <v>1.021168271196307</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.063562481331348</v>
+        <v>1.061444267179479</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.054568525683591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.052067917355859</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.027492241170321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030873078217542</v>
+        <v>1.027828181503302</v>
       </c>
       <c r="D17">
-        <v>1.048910629541469</v>
+        <v>1.04518563417122</v>
       </c>
       <c r="E17">
-        <v>1.049693084617922</v>
+        <v>1.046731839936246</v>
       </c>
       <c r="F17">
-        <v>1.055533208626646</v>
+        <v>1.052723526964635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.066605064421215</v>
+        <v>1.06441408249656</v>
       </c>
       <c r="J17">
-        <v>1.057194449915833</v>
+        <v>1.054257424907515</v>
       </c>
       <c r="K17">
-        <v>1.062112183343324</v>
+        <v>1.058445212099232</v>
       </c>
       <c r="L17">
-        <v>1.062882516993983</v>
+        <v>1.059967268582681</v>
       </c>
       <c r="M17">
-        <v>1.068632892444684</v>
+        <v>1.065866230159435</v>
       </c>
       <c r="N17">
-        <v>1.022169933691912</v>
+        <v>1.021234296954228</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.063995224726083</v>
+        <v>1.061808139719494</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.055066766699038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.052490513641383</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.027591949175741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031470680175267</v>
+        <v>1.028434932510671</v>
       </c>
       <c r="D18">
-        <v>1.049234469650711</v>
+        <v>1.045506335867558</v>
       </c>
       <c r="E18">
-        <v>1.0500902576269</v>
+        <v>1.047135301819583</v>
       </c>
       <c r="F18">
-        <v>1.055766160603595</v>
+        <v>1.05295744616351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.066693475646388</v>
+        <v>1.064502555042744</v>
       </c>
       <c r="J18">
-        <v>1.057395307227758</v>
+        <v>1.054465130778363</v>
       </c>
       <c r="K18">
-        <v>1.062254224215741</v>
+        <v>1.058583228685104</v>
       </c>
       <c r="L18">
-        <v>1.063096969178962</v>
+        <v>1.06018716486545</v>
       </c>
       <c r="M18">
-        <v>1.06868704732256</v>
+        <v>1.065920655892995</v>
       </c>
       <c r="N18">
-        <v>1.022107276124334</v>
+        <v>1.021173187611202</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.063805053877115</v>
+        <v>1.061617743431455</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.055155839599052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.052575597304094</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.027561317446648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031240805098442</v>
+        <v>1.028301397292396</v>
       </c>
       <c r="D19">
-        <v>1.048954707757763</v>
+        <v>1.045308028463394</v>
       </c>
       <c r="E19">
-        <v>1.049753647797798</v>
+        <v>1.046887171632616</v>
       </c>
       <c r="F19">
-        <v>1.055302012238475</v>
+        <v>1.052564633066996</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.066455892862274</v>
+        <v>1.064319841552461</v>
       </c>
       <c r="J19">
-        <v>1.057045351286666</v>
+        <v>1.054207621604218</v>
       </c>
       <c r="K19">
-        <v>1.061918426158305</v>
+        <v>1.058327373048309</v>
       </c>
       <c r="L19">
-        <v>1.062705244988993</v>
+        <v>1.059882367415379</v>
       </c>
       <c r="M19">
-        <v>1.068170075974694</v>
+        <v>1.065473769309281</v>
       </c>
       <c r="N19">
-        <v>1.021805416903504</v>
+        <v>1.02099076873973</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.063078093126423</v>
+        <v>1.060945529874112</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.054924669750215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.052401577207722</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.027422456052588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02866913902869</v>
+        <v>1.026072528041037</v>
       </c>
       <c r="D20">
-        <v>1.046960663812715</v>
+        <v>1.043634025516909</v>
       </c>
       <c r="E20">
-        <v>1.047352109142092</v>
+        <v>1.044806297953927</v>
       </c>
       <c r="F20">
-        <v>1.052899786783279</v>
+        <v>1.050432745923069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.065296337002384</v>
+        <v>1.063369708065848</v>
       </c>
       <c r="J20">
-        <v>1.055137956072266</v>
+        <v>1.052634118712562</v>
       </c>
       <c r="K20">
-        <v>1.060225140417842</v>
+        <v>1.056950690195227</v>
       </c>
       <c r="L20">
-        <v>1.060610472652402</v>
+        <v>1.058104523585866</v>
       </c>
       <c r="M20">
-        <v>1.066072137597806</v>
+        <v>1.06364320311126</v>
       </c>
       <c r="N20">
-        <v>1.020819472114298</v>
+        <v>1.020452386085542</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.060903579407728</v>
+        <v>1.05898138125184</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.053731341290195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.051432482214334</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026974236145156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023338812919975</v>
+        <v>1.021301654272507</v>
       </c>
       <c r="D21">
-        <v>1.043243226456986</v>
+        <v>1.040456313240025</v>
       </c>
       <c r="E21">
-        <v>1.042876512064157</v>
+        <v>1.040856797072388</v>
       </c>
       <c r="F21">
-        <v>1.048932636580521</v>
+        <v>1.046919190378512</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.06341419608461</v>
+        <v>1.061837679236024</v>
       </c>
       <c r="J21">
-        <v>1.051892149057196</v>
+        <v>1.049934991915975</v>
       </c>
       <c r="K21">
-        <v>1.057449180036818</v>
+        <v>1.054709730145344</v>
       </c>
       <c r="L21">
-        <v>1.057088692367089</v>
+        <v>1.055103373222684</v>
       </c>
       <c r="M21">
-        <v>1.063042704184897</v>
+        <v>1.061063037777189</v>
       </c>
       <c r="N21">
-        <v>1.019580587480872</v>
+        <v>1.020118826462615</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.058466243667228</v>
+        <v>1.056899506648937</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.051771882898578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.049851602827171</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.026466747977508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019946412839277</v>
+        <v>1.018264496309248</v>
       </c>
       <c r="D22">
-        <v>1.040886855238586</v>
+        <v>1.038442954972002</v>
       </c>
       <c r="E22">
-        <v>1.040045954098666</v>
+        <v>1.038359733233149</v>
       </c>
       <c r="F22">
-        <v>1.046439792905714</v>
+        <v>1.044714599997575</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.062215442369983</v>
+        <v>1.060860653060144</v>
       </c>
       <c r="J22">
-        <v>1.049835435081645</v>
+        <v>1.048223460801265</v>
       </c>
       <c r="K22">
-        <v>1.055689636963358</v>
+        <v>1.053289472459096</v>
       </c>
       <c r="L22">
-        <v>1.054863754374767</v>
+        <v>1.053207744756372</v>
       </c>
       <c r="M22">
-        <v>1.061144184278216</v>
+        <v>1.05944941414632</v>
       </c>
       <c r="N22">
-        <v>1.018801521535654</v>
+        <v>1.019907715331717</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.056963727242477</v>
+        <v>1.055622458877082</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.050514659383829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.048832953691985</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02614785622724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021732141480091</v>
+        <v>1.019847658819034</v>
       </c>
       <c r="D23">
-        <v>1.042120322568527</v>
+        <v>1.03948314138846</v>
       </c>
       <c r="E23">
-        <v>1.041533094882332</v>
+        <v>1.039657158901431</v>
       </c>
       <c r="F23">
-        <v>1.047749387510422</v>
+        <v>1.045860714762879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.062841693933442</v>
+        <v>1.061361451218111</v>
       </c>
       <c r="J23">
-        <v>1.050911310090581</v>
+        <v>1.049102871018222</v>
       </c>
       <c r="K23">
-        <v>1.056606541970647</v>
+        <v>1.054015343384534</v>
       </c>
       <c r="L23">
-        <v>1.056029527253118</v>
+        <v>1.054186317370245</v>
       </c>
       <c r="M23">
-        <v>1.062138457771085</v>
+        <v>1.060282229923977</v>
       </c>
       <c r="N23">
-        <v>1.019202419019487</v>
+        <v>1.019963941690015</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.057750610195556</v>
+        <v>1.05628156298509</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.051153497793534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.049335781543209</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.026303431128053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028646068009613</v>
+        <v>1.026064568136359</v>
       </c>
       <c r="D24">
-        <v>1.046917805522074</v>
+        <v>1.043603249877014</v>
       </c>
       <c r="E24">
-        <v>1.047309526395268</v>
+        <v>1.044777514001254</v>
       </c>
       <c r="F24">
-        <v>1.052839679862948</v>
+        <v>1.05038360125086</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.065257792128121</v>
+        <v>1.063339508355524</v>
       </c>
       <c r="J24">
-        <v>1.055084319493974</v>
+        <v>1.052594928678853</v>
       </c>
       <c r="K24">
-        <v>1.060168214144997</v>
+        <v>1.056905595521302</v>
       </c>
       <c r="L24">
-        <v>1.060553824764422</v>
+        <v>1.058061411439139</v>
       </c>
       <c r="M24">
-        <v>1.065998335519051</v>
+        <v>1.063580150784895</v>
       </c>
       <c r="N24">
-        <v>1.020767655432057</v>
+        <v>1.020418730341774</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.060805367701964</v>
+        <v>1.058891586234151</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.053664329492632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.051371146552058</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026947553972881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036380530834601</v>
+        <v>1.033256358569888</v>
       </c>
       <c r="D25">
-        <v>1.052305395209886</v>
+        <v>1.048418835969758</v>
       </c>
       <c r="E25">
-        <v>1.053800284412819</v>
+        <v>1.050748564453788</v>
       </c>
       <c r="F25">
-        <v>1.058566323057941</v>
+        <v>1.055650298863484</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.0679225879922</v>
+        <v>1.065643069511093</v>
       </c>
       <c r="J25">
-        <v>1.05974264998287</v>
+        <v>1.056714104272177</v>
       </c>
       <c r="K25">
-        <v>1.064142587387755</v>
+        <v>1.060309290727261</v>
       </c>
       <c r="L25">
-        <v>1.065617121836996</v>
+        <v>1.062607032331769</v>
       </c>
       <c r="M25">
-        <v>1.070318747436366</v>
+        <v>1.067442046462444</v>
       </c>
       <c r="N25">
-        <v>1.02251216079689</v>
+        <v>1.021550426105512</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.064224583679737</v>
+        <v>1.061947936240912</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.056471489774437</v>
+        <v>1.053774519310045</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.027742361681724</v>
       </c>
     </row>
   </sheetData>
